--- a/Solution/PptGeneratorGUI/DataSourceFolder/DataSource.xlsx
+++ b/Solution/PptGeneratorGUI/DataSourceFolder/DataSource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\PptGeneratorGUI\DataSourceFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C524E5C4-5875-452D-8DF2-BFDAE6B2DC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D1C57-9055-46A5-B5E8-A89F5CAB84D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Budget" sheetId="3" r:id="rId2"/>
     <sheet name="Forecast" sheetId="4" r:id="rId3"/>
     <sheet name="RunRate" sheetId="5" r:id="rId4"/>
-    <sheet name="Superdettagli" sheetId="1" r:id="rId5"/>
+    <sheet name="Superdetails" sheetId="1" r:id="rId5"/>
     <sheet name="table_tabProjType" sheetId="8" r:id="rId6"/>
     <sheet name="table_tabProjTypeCluster" sheetId="9" r:id="rId7"/>
     <sheet name="table_CommonTable" sheetId="10" r:id="rId8"/>
@@ -39947,7 +39947,7 @@
   <dimension ref="A1:CL8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9"/>
+      <selection activeCell="AH47" sqref="AH47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Solution/PptGeneratorGUI/DataSourceFolder/DataSource.xlsx
+++ b/Solution/PptGeneratorGUI/DataSourceFolder/DataSource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\PptGeneratorGUI\DataSourceFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7876DF5-A146-42D3-9FFB-0ED1E2C03580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F601484-4D99-4307-B8EC-10B857D64005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="33" r:id="rId1"/>
@@ -7251,9 +7251,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="da considerare?_" dataDxfId="30">
       <calculatedColumnFormula>IF(  UPPER(LEFT( tabSuperdettagli[[#This Row],[WBE Status]],1) ) = "S",  "sì",  "no"   )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Anno_" dataDxfId="29">
-      <calculatedColumnFormula>tabSuperdettagli[[#This Row],[Sender Cost Center2]]*1</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Anno_" dataDxfId="29"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Anno di prima marcatura (=anno di apertura progetto)"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="WBS_" dataDxfId="28">
       <calculatedColumnFormula>LEFT(tabSuperdettagli[[#This Row],[Network7]], 10)</calculatedColumnFormula>
@@ -7770,7 +7768,7 @@
   </sheetPr>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -39966,8 +39964,8 @@
   </sheetPr>
   <dimension ref="A1:CC8"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY3" sqref="AY3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40391,7 +40389,7 @@
         <v>2020</v>
       </c>
       <c r="C3">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="D3" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -40507,7 +40505,7 @@
         <v>390</v>
       </c>
       <c r="AG3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s">
         <v>391</v>
@@ -40654,7 +40652,7 @@
         <v>2021</v>
       </c>
       <c r="C4">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="D4" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -40770,7 +40768,7 @@
         <v>81</v>
       </c>
       <c r="AG4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="AH4" t="s">
         <v>410</v>
@@ -40917,7 +40915,7 @@
         <v>2022</v>
       </c>
       <c r="C5">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="D5" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -41033,7 +41031,7 @@
         <v>424</v>
       </c>
       <c r="AG5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AH5" t="s">
         <v>410</v>
@@ -41180,7 +41178,7 @@
         <v>2023</v>
       </c>
       <c r="C6">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D6" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -41443,7 +41441,7 @@
         <v>2024</v>
       </c>
       <c r="C7">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="D7" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>

--- a/Solution/PptGeneratorGUI/DataSourceFolder/DataSource.xlsx
+++ b/Solution/PptGeneratorGUI/DataSourceFolder/DataSource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\PptGeneratorGUI\DataSourceFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F601484-4D99-4307-B8EC-10B857D64005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD9BEDB-628F-4A11-9D94-FB7F6A69EE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
     <definedName name="mese">"10"</definedName>
     <definedName name="quarter">"Q4"</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateCount="1" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1276,9 +1276,6 @@
     <t>ANALISI RICHIESTE MINORI KIT+QUOT. TOB</t>
   </si>
   <si>
-    <t>K005.01001.TOB.01006</t>
-  </si>
-  <si>
     <t>5320326</t>
   </si>
   <si>
@@ -1331,9 +1328,6 @@
   </si>
   <si>
     <t>FATTIBILITA' DEL 2025 TOBACCO</t>
-  </si>
-  <si>
-    <t>K005.00012.PAC.99901</t>
   </si>
   <si>
     <t>5447634</t>
@@ -1575,6 +1569,12 @@
   </si>
   <si>
     <t>Data Uscita GD</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Go</t>
   </si>
 </sst>
 </file>
@@ -7719,7 +7719,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -7741,7 +7741,7 @@
         <v>45967</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E3" t="str">
         <f>quarter</f>
@@ -7894,7 +7894,7 @@
         <v>133</v>
       </c>
       <c r="L5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M5" s="64"/>
     </row>
@@ -7944,7 +7944,7 @@
         <v>123</v>
       </c>
       <c r="L7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M7" s="64"/>
     </row>
@@ -7969,7 +7969,7 @@
         <v>118</v>
       </c>
       <c r="L8" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M8" s="64"/>
     </row>
@@ -7994,7 +7994,7 @@
         <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M9" s="64"/>
     </row>
@@ -8021,7 +8021,7 @@
         <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M10" s="64"/>
     </row>
@@ -9307,7 +9307,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="130" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B1" s="131"/>
     </row>
@@ -9356,23 +9356,23 @@
         <v>163</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -9465,10 +9465,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9508,15 +9508,15 @@
         <v>175</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="113" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="79" t="s">
         <v>429</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -18795,7 +18795,7 @@
         <v>15</v>
       </c>
       <c r="K2" s="88" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L2" s="88" t="s">
         <v>16</v>
@@ -37096,7 +37096,7 @@
         <v>38</v>
       </c>
       <c r="P2" s="88" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Q2" s="88" t="s">
         <v>16</v>
@@ -39964,8 +39964,8 @@
   </sheetPr>
   <dimension ref="A1:CC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40227,157 +40227,157 @@
         <v>76</v>
       </c>
       <c r="AE2" t="s">
+        <v>439</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>440</v>
+      </c>
+      <c r="AG2" t="s">
         <v>441</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>442</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>443</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>444</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>445</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>446</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" s="115" t="s">
         <v>447</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>448</v>
       </c>
-      <c r="AM2" s="115" t="s">
+      <c r="AO2" t="s">
         <v>449</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>450</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>451</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>452</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>453</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>454</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>455</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
         <v>456</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>457</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>458</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>459</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" s="116" t="s">
         <v>460</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>461</v>
       </c>
-      <c r="AZ2" s="116" t="s">
+      <c r="BB2" t="s">
         <v>462</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>463</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>464</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>465</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" s="116" t="s">
         <v>466</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>467</v>
       </c>
-      <c r="BF2" s="116" t="s">
+      <c r="BH2" t="s">
         <v>468</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>469</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BJ2" s="117" t="s">
         <v>470</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" s="117" t="s">
         <v>471</v>
       </c>
-      <c r="BJ2" s="117" t="s">
+      <c r="BL2" s="117" t="s">
         <v>472</v>
       </c>
-      <c r="BK2" s="117" t="s">
+      <c r="BM2" s="117" t="s">
         <v>473</v>
       </c>
-      <c r="BL2" s="117" t="s">
+      <c r="BN2" s="117" t="s">
         <v>474</v>
       </c>
-      <c r="BM2" s="117" t="s">
+      <c r="BO2" s="117" t="s">
         <v>475</v>
       </c>
-      <c r="BN2" s="117" t="s">
+      <c r="BP2" s="117" t="s">
         <v>476</v>
       </c>
-      <c r="BO2" s="117" t="s">
+      <c r="BQ2" s="117" t="s">
         <v>477</v>
       </c>
-      <c r="BP2" s="117" t="s">
+      <c r="BR2" t="s">
         <v>478</v>
       </c>
-      <c r="BQ2" s="117" t="s">
+      <c r="BS2" t="s">
         <v>479</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BT2" t="s">
         <v>480</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BU2" t="s">
         <v>481</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BV2" t="s">
         <v>482</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BW2" t="s">
         <v>483</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BX2" t="s">
         <v>484</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BY2" t="s">
         <v>485</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BZ2" t="s">
         <v>486</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CA2" t="s">
         <v>487</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CB2" s="118" t="s">
         <v>488</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CC2" s="118" t="s">
         <v>489</v>
-      </c>
-      <c r="CB2" s="118" t="s">
-        <v>490</v>
-      </c>
-      <c r="CC2" s="118" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.25">
@@ -40386,10 +40386,10 @@
         <v>no</v>
       </c>
       <c r="B3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D3" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -40481,7 +40481,7 @@
       </c>
       <c r="Z3" t="str">
         <f>tabSuperdettagli[[#This Row],[WBS Element6]]&amp;""</f>
-        <v>K005.01001.TOB.01006</v>
+        <v>Stay</v>
       </c>
       <c r="AA3" t="str">
         <f>tabSuperdettagli[[#This Row],[09.AAAA]]</f>
@@ -40511,31 +40511,31 @@
         <v>391</v>
       </c>
       <c r="AI3" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>392</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>393</v>
       </c>
       <c r="AK3">
         <v>2023</v>
       </c>
       <c r="AL3" t="s">
+        <v>393</v>
+      </c>
+      <c r="AM3" t="s">
         <v>394</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>395</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>396</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>397</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>398</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>399</v>
       </c>
       <c r="AR3" t="s">
         <v>83</v>
@@ -40544,7 +40544,7 @@
         <v>84</v>
       </c>
       <c r="AT3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AU3" t="s">
         <v>39</v>
@@ -40559,16 +40559,16 @@
         <v>391</v>
       </c>
       <c r="AY3" t="s">
+        <v>400</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>401</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>402</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>403</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>404</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -40613,10 +40613,10 @@
         <v>49</v>
       </c>
       <c r="BQ3" t="s">
+        <v>404</v>
+      </c>
+      <c r="BR3" t="s">
         <v>405</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>406</v>
       </c>
       <c r="BS3" t="s">
         <v>83</v>
@@ -40625,10 +40625,10 @@
         <v>189</v>
       </c>
       <c r="BU3" t="s">
+        <v>406</v>
+      </c>
+      <c r="BV3" t="s">
         <v>407</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>408</v>
       </c>
       <c r="BW3" t="s">
         <v>79</v>
@@ -40640,7 +40640,7 @@
         <v>88</v>
       </c>
       <c r="CB3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.25">
@@ -40649,10 +40649,10 @@
         <v>no</v>
       </c>
       <c r="B4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D4" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -40744,7 +40744,7 @@
       </c>
       <c r="Z4" t="str">
         <f>tabSuperdettagli[[#This Row],[WBS Element6]]&amp;""</f>
-        <v>K005.00012.PAC.99901</v>
+        <v>Stay</v>
       </c>
       <c r="AA4" t="str">
         <f>tabSuperdettagli[[#This Row],[09.AAAA]]</f>
@@ -40771,37 +40771,37 @@
         <v>96</v>
       </c>
       <c r="AH4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>410</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>411</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>412</v>
       </c>
       <c r="AK4">
         <v>2023</v>
       </c>
       <c r="AL4" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AM4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AN4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AO4" t="s">
         <v>82</v>
       </c>
       <c r="AP4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR4" t="s">
         <v>415</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>416</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>417</v>
       </c>
       <c r="AS4" t="s">
         <v>84</v>
@@ -40819,16 +40819,16 @@
         <v>189</v>
       </c>
       <c r="AX4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AY4" t="s">
+        <v>416</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>417</v>
+      </c>
+      <c r="BA4" t="s">
         <v>418</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>419</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>420</v>
       </c>
       <c r="BB4" t="s">
         <v>89</v>
@@ -40876,22 +40876,22 @@
         <v>49</v>
       </c>
       <c r="BQ4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="BR4" t="s">
         <v>357</v>
       </c>
       <c r="BS4" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="BT4" t="s">
         <v>189</v>
       </c>
       <c r="BU4" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="BV4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BW4" t="s">
         <v>79</v>
@@ -40900,7 +40900,7 @@
         <v>79</v>
       </c>
       <c r="BZ4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="CB4" t="s">
         <v>79</v>
@@ -40912,10 +40912,10 @@
         <v>no</v>
       </c>
       <c r="B5">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="D5" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -41007,7 +41007,7 @@
       </c>
       <c r="Z5" t="str">
         <f>tabSuperdettagli[[#This Row],[WBS Element6]]&amp;""</f>
-        <v>K005.00012.PAC.99901</v>
+        <v>Stay</v>
       </c>
       <c r="AA5" t="str">
         <f>tabSuperdettagli[[#This Row],[09.AAAA]]</f>
@@ -41028,43 +41028,43 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG5" t="s">
         <v>99</v>
       </c>
       <c r="AH5" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>410</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>411</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>412</v>
       </c>
       <c r="AK5">
         <v>2024</v>
       </c>
       <c r="AL5" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>396</v>
+      </c>
+      <c r="AP5" t="s">
         <v>413</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AQ5" t="s">
         <v>414</v>
       </c>
-      <c r="AN5" t="s">
-        <v>396</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>397</v>
-      </c>
-      <c r="AP5" t="s">
+      <c r="AR5" t="s">
         <v>415</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>416</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>417</v>
       </c>
       <c r="AS5" t="s">
         <v>84</v>
@@ -41082,16 +41082,16 @@
         <v>189</v>
       </c>
       <c r="AX5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AY5" t="s">
+        <v>416</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>417</v>
+      </c>
+      <c r="BA5" t="s">
         <v>418</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>419</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>420</v>
       </c>
       <c r="BB5" t="s">
         <v>89</v>
@@ -41139,22 +41139,22 @@
         <v>49</v>
       </c>
       <c r="BQ5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="BR5" t="s">
         <v>357</v>
       </c>
       <c r="BS5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="BT5" t="s">
         <v>189</v>
       </c>
       <c r="BU5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="BV5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BW5" t="s">
         <v>79</v>
@@ -41163,7 +41163,7 @@
         <v>79</v>
       </c>
       <c r="BZ5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="CB5" t="s">
         <v>79</v>
@@ -41175,10 +41175,10 @@
         <v>no</v>
       </c>
       <c r="B6">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="C6">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D6" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -41270,7 +41270,7 @@
       </c>
       <c r="Z6" t="str">
         <f>tabSuperdettagli[[#This Row],[WBS Element6]]&amp;""</f>
-        <v>K005.00012.PAC.99901</v>
+        <v>Go</v>
       </c>
       <c r="AA6" t="str">
         <f>tabSuperdettagli[[#This Row],[09.AAAA]]</f>
@@ -41297,37 +41297,37 @@
         <v>100</v>
       </c>
       <c r="AH6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>491</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>410</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>411</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>412</v>
       </c>
       <c r="AK6">
         <v>2024</v>
       </c>
       <c r="AL6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AM6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AN6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AO6" t="s">
         <v>82</v>
       </c>
       <c r="AP6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AR6" t="s">
         <v>415</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>417</v>
       </c>
       <c r="AS6" t="s">
         <v>84</v>
@@ -41345,16 +41345,16 @@
         <v>189</v>
       </c>
       <c r="AX6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AY6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>417</v>
+      </c>
+      <c r="BA6" t="s">
         <v>418</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>419</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>420</v>
       </c>
       <c r="BB6" t="s">
         <v>89</v>
@@ -41402,22 +41402,22 @@
         <v>49</v>
       </c>
       <c r="BQ6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="BR6" t="s">
         <v>357</v>
       </c>
       <c r="BS6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="BT6" t="s">
         <v>189</v>
       </c>
       <c r="BU6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="BV6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BW6" t="s">
         <v>79</v>
@@ -41426,7 +41426,7 @@
         <v>79</v>
       </c>
       <c r="BZ6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="CB6" t="s">
         <v>79</v>
@@ -41438,10 +41438,10 @@
         <v>no</v>
       </c>
       <c r="B7">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C7">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="D7" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -41533,7 +41533,7 @@
       </c>
       <c r="Z7" t="str">
         <f>tabSuperdettagli[[#This Row],[WBS Element6]]&amp;""</f>
-        <v>K005.00012.PAC.99901</v>
+        <v>Go</v>
       </c>
       <c r="AA7" t="str">
         <f>tabSuperdettagli[[#This Row],[09.AAAA]]</f>
@@ -41554,43 +41554,43 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG7" t="s">
         <v>103</v>
       </c>
       <c r="AH7" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>491</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>410</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>411</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>412</v>
       </c>
       <c r="AK7">
         <v>2025</v>
       </c>
       <c r="AL7" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>412</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>396</v>
+      </c>
+      <c r="AP7" t="s">
         <v>413</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AQ7" t="s">
         <v>414</v>
       </c>
-      <c r="AN7" t="s">
-        <v>396</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>397</v>
-      </c>
-      <c r="AP7" t="s">
+      <c r="AR7" t="s">
         <v>415</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>416</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>417</v>
       </c>
       <c r="AS7" t="s">
         <v>84</v>
@@ -41608,16 +41608,16 @@
         <v>189</v>
       </c>
       <c r="AX7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AY7" t="s">
+        <v>416</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>417</v>
+      </c>
+      <c r="BA7" t="s">
         <v>418</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>419</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>420</v>
       </c>
       <c r="BB7" t="s">
         <v>89</v>
@@ -41665,22 +41665,22 @@
         <v>49</v>
       </c>
       <c r="BQ7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="BR7" t="s">
         <v>357</v>
       </c>
       <c r="BS7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="BT7" t="s">
         <v>189</v>
       </c>
       <c r="BU7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="BV7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BW7" t="s">
         <v>79</v>
@@ -41689,7 +41689,7 @@
         <v>79</v>
       </c>
       <c r="BZ7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="CB7" t="s">
         <v>79</v>
@@ -41701,10 +41701,10 @@
         <v>no</v>
       </c>
       <c r="B8">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C8">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="D8" t="str">
         <f>LEFT(tabSuperdettagli[[#This Row],[Network7]],10)</f>
@@ -41796,7 +41796,7 @@
       </c>
       <c r="Z8" t="str">
         <f>tabSuperdettagli[[#This Row],[WBS Element6]]&amp;""</f>
-        <v>K005.01001.TOB.01006</v>
+        <v>Stay</v>
       </c>
       <c r="AA8" t="str">
         <f>tabSuperdettagli[[#This Row],[09.AAAA]]</f>
@@ -41820,37 +41820,37 @@
         <v>390</v>
       </c>
       <c r="AG8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AH8" t="s">
         <v>391</v>
       </c>
       <c r="AI8" t="s">
+        <v>490</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>392</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>393</v>
       </c>
       <c r="AK8">
         <v>2025</v>
       </c>
       <c r="AL8" t="s">
+        <v>393</v>
+      </c>
+      <c r="AM8" t="s">
         <v>394</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>395</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>396</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>397</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>398</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>399</v>
       </c>
       <c r="AR8" t="s">
         <v>83</v>
@@ -41859,7 +41859,7 @@
         <v>84</v>
       </c>
       <c r="AT8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AU8" t="s">
         <v>39</v>
@@ -41874,16 +41874,16 @@
         <v>391</v>
       </c>
       <c r="AY8" t="s">
+        <v>400</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>401</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>402</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>403</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>404</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -41928,10 +41928,10 @@
         <v>49</v>
       </c>
       <c r="BQ8" t="s">
+        <v>404</v>
+      </c>
+      <c r="BR8" t="s">
         <v>405</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>406</v>
       </c>
       <c r="BS8" t="s">
         <v>83</v>
@@ -41940,10 +41940,10 @@
         <v>189</v>
       </c>
       <c r="BU8" t="s">
+        <v>406</v>
+      </c>
+      <c r="BV8" t="s">
         <v>407</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>408</v>
       </c>
       <c r="BW8" t="s">
         <v>79</v>
@@ -41955,7 +41955,7 @@
         <v>88</v>
       </c>
       <c r="CB8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/Solution/PptGeneratorGUI/DataSourceFolder/DataSource.xlsx
+++ b/Solution/PptGeneratorGUI/DataSourceFolder/DataSource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\PptGeneratorGUI\DataSourceFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2F9B9E-29B9-4FA5-A458-3DFB265E8E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16338BA6-9F98-415E-B190-CB586CD0A0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="774" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="301">
   <si>
     <t>FORMULA</t>
   </si>
@@ -666,9 +666,6 @@
     <t xml:space="preserve"> Totale</t>
   </si>
   <si>
-    <t>D1:P10</t>
-  </si>
-  <si>
     <t>D1:P20</t>
   </si>
   <si>
@@ -1001,6 +998,9 @@
   </si>
   <si>
     <t>Categoria A</t>
+  </si>
+  <si>
+    <t>Prova</t>
   </si>
 </sst>
 </file>
@@ -5409,7 +5409,315 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1324636872706982E-2"/>
+          <c:y val="4.0110083326962767E-2"/>
+          <c:w val="0.90414311971221584"/>
+          <c:h val="0.91146079555589532"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>RunRate!$A$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6F5-4756-956A-C7BD8D98088F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="166679840"/>
+        <c:axId val="166676480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="166679840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166676480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166676480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="166679840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5599,6 +5907,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6520,6 +7344,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89C4ADA0-7F6B-488D-855A-A454D0B1C6BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblBudget" displayName="tblBudget" ref="A2:S3" totalsRowShown="0">
   <autoFilter ref="A2:S3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
@@ -7217,7 +8082,7 @@
         <v>11</v>
       </c>
       <c r="K2" s="88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L2" s="88" t="s">
         <v>12</v>
@@ -7282,10 +8147,10 @@
         <v>80</v>
       </c>
       <c r="K3" t="s">
+        <v>298</v>
+      </c>
+      <c r="L3" t="s">
         <v>299</v>
-      </c>
-      <c r="L3" t="s">
-        <v>300</v>
       </c>
       <c r="M3">
         <v>10</v>
@@ -7337,7 +8202,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="129" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="130"/>
     </row>
@@ -7386,23 +8251,23 @@
         <v>159</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7495,10 +8360,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="79" t="s">
         <v>244</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7538,15 +8403,15 @@
         <v>170</v>
       </c>
       <c r="B8" s="79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="113" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8447,8 +9312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8518,59 +9383,58 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D2" s="86" t="str">
         <f>D1</f>
         <v>PP_02</v>
       </c>
-      <c r="E2" s="86" t="str">
-        <f t="shared" ref="E2:P2" si="1">D2</f>
-        <v>PP_02</v>
+      <c r="E2" s="86" t="s">
+        <v>300</v>
       </c>
       <c r="F2" s="86" t="str">
-        <f t="shared" si="1"/>
-        <v>PP_02</v>
+        <f t="shared" ref="F2:P2" si="1">E2</f>
+        <v>Prova</v>
       </c>
       <c r="G2" s="86" t="str">
         <f t="shared" si="1"/>
-        <v>PP_02</v>
+        <v>Prova</v>
       </c>
       <c r="H2" s="86" t="str">
         <f t="shared" si="1"/>
-        <v>PP_02</v>
+        <v>Prova</v>
       </c>
       <c r="I2" s="86" t="str">
         <f t="shared" si="1"/>
-        <v>PP_02</v>
+        <v>Prova</v>
       </c>
       <c r="J2" s="86" t="str">
         <f t="shared" si="1"/>
-        <v>PP_02</v>
+        <v>Prova</v>
       </c>
       <c r="K2" s="86" t="str">
         <f t="shared" si="1"/>
-        <v>PP_02</v>
+        <v>Prova</v>
       </c>
       <c r="L2" s="86" t="str">
         <f t="shared" si="1"/>
-        <v>PP_02</v>
+        <v>Prova</v>
       </c>
       <c r="M2" s="86" t="str">
         <f t="shared" si="1"/>
-        <v>PP_02</v>
+        <v>Prova</v>
       </c>
       <c r="N2" s="86" t="str">
         <f t="shared" si="1"/>
-        <v>PP_02</v>
+        <v>Prova</v>
       </c>
       <c r="O2" s="86" t="str">
         <f t="shared" si="1"/>
-        <v>PP_02</v>
+        <v>Prova</v>
       </c>
       <c r="P2" s="86" t="str">
         <f t="shared" si="1"/>
-        <v>PP_02</v>
+        <v>Prova</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -10099,6 +10963,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10177,7 +11042,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D2" s="108" t="str">
         <f>D1</f>
@@ -11836,7 +12701,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="109" t="str">
         <f>D1</f>
@@ -13495,7 +14360,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" s="110" t="str">
         <f>D1</f>
@@ -15154,7 +16019,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="111" t="str">
         <f>D1</f>
@@ -16813,7 +17678,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="108" t="str">
         <f>D1</f>
@@ -18512,7 +19377,7 @@
         <v>34</v>
       </c>
       <c r="P2" s="88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q2" s="88" t="s">
         <v>12</v>
@@ -18601,10 +19466,10 @@
         <v>Categoria A</v>
       </c>
       <c r="P3" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q3" t="s">
         <v>299</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>300</v>
       </c>
       <c r="R3">
         <v>10</v>
@@ -18715,7 +19580,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -20374,7 +21239,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -22033,7 +22898,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -23692,7 +24557,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -25351,7 +26216,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -27010,7 +27875,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -28669,7 +29534,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -30272,7 +31137,7 @@
       </c>
       <c r="B1" s="137"/>
       <c r="D1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -30328,7 +31193,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -31931,7 +32796,7 @@
       </c>
       <c r="B1" s="137"/>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -31987,7 +32852,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -33590,7 +34455,7 @@
       </c>
       <c r="B1" s="137"/>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E1" t="str">
         <f>D1</f>
@@ -33646,7 +34511,7 @@
         <v>172</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" t="str">
         <f>D1</f>
@@ -35238,7 +36103,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35283,40 +36148,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="53">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="B2" s="53">
         <v>0.1</v>
       </c>
       <c r="C2" s="53">
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="53">
         <v>0.15</v>
       </c>
-      <c r="D2" s="53">
+      <c r="F2" s="53">
         <v>0.2</v>
       </c>
-      <c r="E2" s="53">
+      <c r="G2" s="53">
         <v>0.25</v>
       </c>
-      <c r="F2" s="53">
-        <v>0.3</v>
-      </c>
-      <c r="G2" s="53">
-        <v>0.35</v>
-      </c>
       <c r="H2" s="53">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I2" s="53">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="J2" s="53">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="53">
-        <v>0.55000000000000004</v>
+        <v>0.05</v>
       </c>
       <c r="L2" s="53">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -35597,157 +36462,157 @@
         <v>72</v>
       </c>
       <c r="AE2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF2" t="s">
         <v>246</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>247</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>248</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>249</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>250</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>251</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>252</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" s="114" t="s">
         <v>253</v>
       </c>
-      <c r="AM2" s="114" t="s">
+      <c r="AN2" t="s">
         <v>254</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>255</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>256</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>257</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>258</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>259</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>260</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>261</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>262</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>263</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>264</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>265</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" s="115" t="s">
         <v>266</v>
       </c>
-      <c r="AZ2" s="115" t="s">
+      <c r="BA2" t="s">
         <v>267</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>268</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>269</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>270</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>271</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" s="115" t="s">
         <v>272</v>
       </c>
-      <c r="BF2" s="115" t="s">
+      <c r="BG2" t="s">
         <v>273</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>274</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>275</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" s="116" t="s">
         <v>276</v>
       </c>
-      <c r="BJ2" s="116" t="s">
+      <c r="BK2" s="116" t="s">
         <v>277</v>
       </c>
-      <c r="BK2" s="116" t="s">
+      <c r="BL2" s="116" t="s">
         <v>278</v>
       </c>
-      <c r="BL2" s="116" t="s">
+      <c r="BM2" s="116" t="s">
         <v>279</v>
       </c>
-      <c r="BM2" s="116" t="s">
+      <c r="BN2" s="116" t="s">
         <v>280</v>
       </c>
-      <c r="BN2" s="116" t="s">
+      <c r="BO2" s="116" t="s">
         <v>281</v>
       </c>
-      <c r="BO2" s="116" t="s">
+      <c r="BP2" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="BP2" s="116" t="s">
+      <c r="BQ2" s="116" t="s">
         <v>283</v>
       </c>
-      <c r="BQ2" s="116" t="s">
+      <c r="BR2" t="s">
         <v>284</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>285</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>286</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>287</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>288</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
         <v>289</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>290</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>291</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>292</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>293</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" s="117" t="s">
         <v>294</v>
       </c>
-      <c r="CB2" s="117" t="s">
+      <c r="CC2" s="117" t="s">
         <v>295</v>
-      </c>
-      <c r="CC2" s="117" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.25">
@@ -35869,43 +36734,43 @@
         <v>5320326</v>
       </c>
       <c r="AE3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF3" t="s">
         <v>198</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>199</v>
       </c>
       <c r="AG3" t="s">
         <v>83</v>
       </c>
       <c r="AH3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>200</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>297</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>201</v>
       </c>
       <c r="AK3">
         <v>2023</v>
       </c>
       <c r="AL3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM3" t="s">
         <v>202</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>203</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>204</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>205</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>206</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>207</v>
       </c>
       <c r="AR3" t="s">
         <v>79</v>
@@ -35914,7 +36779,7 @@
         <v>80</v>
       </c>
       <c r="AT3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AU3" t="s">
         <v>35</v>
@@ -35926,19 +36791,19 @@
         <v>184</v>
       </c>
       <c r="AX3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AY3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>209</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>210</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>211</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>212</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -35983,10 +36848,10 @@
         <v>45</v>
       </c>
       <c r="BQ3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BR3" t="s">
         <v>213</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>214</v>
       </c>
       <c r="BS3" t="s">
         <v>79</v>
@@ -35995,10 +36860,10 @@
         <v>184</v>
       </c>
       <c r="BU3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BV3" t="s">
         <v>215</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>216</v>
       </c>
       <c r="BW3" t="s">
         <v>75</v>
@@ -36010,7 +36875,7 @@
         <v>84</v>
       </c>
       <c r="CB3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.25">
@@ -36141,37 +37006,37 @@
         <v>92</v>
       </c>
       <c r="AH4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>218</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>297</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>219</v>
       </c>
       <c r="AK4">
         <v>2023</v>
       </c>
       <c r="AL4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM4" t="s">
         <v>220</v>
       </c>
-      <c r="AM4" t="s">
-        <v>221</v>
-      </c>
       <c r="AN4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO4" t="s">
         <v>78</v>
       </c>
       <c r="AP4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>222</v>
       </c>
-      <c r="AQ4" t="s">
+      <c r="AR4" t="s">
         <v>223</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>224</v>
       </c>
       <c r="AS4" t="s">
         <v>80</v>
@@ -36189,16 +37054,16 @@
         <v>184</v>
       </c>
       <c r="AX4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AY4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>225</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>226</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>227</v>
       </c>
       <c r="BB4" t="s">
         <v>85</v>
@@ -36246,22 +37111,22 @@
         <v>45</v>
       </c>
       <c r="BQ4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BR4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BS4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BT4" t="s">
         <v>184</v>
       </c>
       <c r="BU4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BV4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BW4" t="s">
         <v>75</v>
@@ -36270,7 +37135,7 @@
         <v>75</v>
       </c>
       <c r="BZ4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="CB4" t="s">
         <v>75</v>
@@ -36398,43 +37263,43 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG5" t="s">
         <v>95</v>
       </c>
       <c r="AH5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>296</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>218</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>297</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>219</v>
       </c>
       <c r="AK5">
         <v>2024</v>
       </c>
       <c r="AL5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM5" t="s">
         <v>220</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AN5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP5" t="s">
         <v>221</v>
       </c>
-      <c r="AN5" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>222</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
         <v>223</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>224</v>
       </c>
       <c r="AS5" t="s">
         <v>80</v>
@@ -36452,16 +37317,16 @@
         <v>184</v>
       </c>
       <c r="AX5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AY5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>225</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>226</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>227</v>
       </c>
       <c r="BB5" t="s">
         <v>85</v>
@@ -36509,22 +37374,22 @@
         <v>45</v>
       </c>
       <c r="BQ5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BR5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BS5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BT5" t="s">
         <v>184</v>
       </c>
       <c r="BU5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BV5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BW5" t="s">
         <v>75</v>
@@ -36533,7 +37398,7 @@
         <v>75</v>
       </c>
       <c r="BZ5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="CB5" t="s">
         <v>75</v>
@@ -36667,37 +37532,37 @@
         <v>96</v>
       </c>
       <c r="AH6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>218</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>298</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>219</v>
       </c>
       <c r="AK6">
         <v>2024</v>
       </c>
       <c r="AL6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM6" t="s">
         <v>220</v>
       </c>
-      <c r="AM6" t="s">
-        <v>221</v>
-      </c>
       <c r="AN6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AO6" t="s">
         <v>78</v>
       </c>
       <c r="AP6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>222</v>
       </c>
-      <c r="AQ6" t="s">
+      <c r="AR6" t="s">
         <v>223</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>224</v>
       </c>
       <c r="AS6" t="s">
         <v>80</v>
@@ -36715,16 +37580,16 @@
         <v>184</v>
       </c>
       <c r="AX6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AY6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>225</v>
       </c>
-      <c r="AZ6" t="s">
+      <c r="BA6" t="s">
         <v>226</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>227</v>
       </c>
       <c r="BB6" t="s">
         <v>85</v>
@@ -36772,22 +37637,22 @@
         <v>45</v>
       </c>
       <c r="BQ6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BR6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BS6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BT6" t="s">
         <v>184</v>
       </c>
       <c r="BU6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BV6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BW6" t="s">
         <v>75</v>
@@ -36796,7 +37661,7 @@
         <v>75</v>
       </c>
       <c r="BZ6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="CB6" t="s">
         <v>75</v>
@@ -36924,43 +37789,43 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG7" t="s">
         <v>99</v>
       </c>
       <c r="AH7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>218</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>298</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>219</v>
       </c>
       <c r="AK7">
         <v>2025</v>
       </c>
       <c r="AL7" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM7" t="s">
         <v>220</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AN7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP7" t="s">
         <v>221</v>
       </c>
-      <c r="AN7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>222</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
         <v>223</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>224</v>
       </c>
       <c r="AS7" t="s">
         <v>80</v>
@@ -36978,16 +37843,16 @@
         <v>184</v>
       </c>
       <c r="AX7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AY7" t="s">
+        <v>224</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>225</v>
       </c>
-      <c r="AZ7" t="s">
+      <c r="BA7" t="s">
         <v>226</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>227</v>
       </c>
       <c r="BB7" t="s">
         <v>85</v>
@@ -37035,22 +37900,22 @@
         <v>45</v>
       </c>
       <c r="BQ7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BR7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BS7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BT7" t="s">
         <v>184</v>
       </c>
       <c r="BU7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BV7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BW7" t="s">
         <v>75</v>
@@ -37059,7 +37924,7 @@
         <v>75</v>
       </c>
       <c r="BZ7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="CB7" t="s">
         <v>75</v>
@@ -37184,43 +38049,43 @@
         <v>5320326</v>
       </c>
       <c r="AE8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF8" t="s">
         <v>198</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH8" t="s">
         <v>199</v>
       </c>
-      <c r="AG8" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
+        <v>296</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>200</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>297</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>201</v>
       </c>
       <c r="AK8">
         <v>2025</v>
       </c>
       <c r="AL8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM8" t="s">
         <v>202</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>203</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>204</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>205</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>206</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>207</v>
       </c>
       <c r="AR8" t="s">
         <v>79</v>
@@ -37229,7 +38094,7 @@
         <v>80</v>
       </c>
       <c r="AT8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AU8" t="s">
         <v>35</v>
@@ -37241,19 +38106,19 @@
         <v>184</v>
       </c>
       <c r="AX8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AY8" t="s">
+        <v>208</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>209</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>210</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>211</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>212</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -37298,10 +38163,10 @@
         <v>45</v>
       </c>
       <c r="BQ8" t="s">
+        <v>212</v>
+      </c>
+      <c r="BR8" t="s">
         <v>213</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>214</v>
       </c>
       <c r="BS8" t="s">
         <v>79</v>
@@ -37310,10 +38175,10 @@
         <v>184</v>
       </c>
       <c r="BU8" t="s">
+        <v>214</v>
+      </c>
+      <c r="BV8" t="s">
         <v>215</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>216</v>
       </c>
       <c r="BW8" t="s">
         <v>75</v>
@@ -37325,7 +38190,7 @@
         <v>84</v>
       </c>
       <c r="CB8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -41248,7 +42113,7 @@
   </sheetPr>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
@@ -41374,7 +42239,7 @@
         <v>129</v>
       </c>
       <c r="L5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M5" s="64"/>
     </row>
@@ -41424,7 +42289,7 @@
         <v>119</v>
       </c>
       <c r="L7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M7" s="64"/>
     </row>
@@ -41449,7 +42314,7 @@
         <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M8" s="64"/>
     </row>
@@ -41474,7 +42339,7 @@
         <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M9" s="64"/>
     </row>
@@ -41501,7 +42366,7 @@
         <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M10" s="64"/>
     </row>

--- a/Solution/PptGeneratorGUI/DataSourceFolder/DataSource.xlsx
+++ b/Solution/PptGeneratorGUI/DataSourceFolder/DataSource.xlsx
@@ -8,41 +8,42 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\PptGeneratorGUI\DataSourceFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2400DB0-E54F-4140-9253-A08A97544761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4067ECE1-D3C1-4C20-95A0-570E7E33E4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="924" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="924" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="3" r:id="rId1"/>
     <sheet name="Forecast" sheetId="4" r:id="rId2"/>
     <sheet name="RunRate" sheetId="5" r:id="rId3"/>
     <sheet name="Superdetails" sheetId="1" r:id="rId4"/>
-    <sheet name="pivot di appoggio" sheetId="33" r:id="rId5"/>
-    <sheet name="table_tabProjType" sheetId="8" r:id="rId6"/>
-    <sheet name="table_tabProjTypeCluster" sheetId="9" r:id="rId7"/>
-    <sheet name="table_CommonTable" sheetId="10" r:id="rId8"/>
-    <sheet name="table_tabProgettiD" sheetId="11" r:id="rId9"/>
-    <sheet name="Powerpoint Configuration" sheetId="32" r:id="rId10"/>
-    <sheet name="Alias-Business" sheetId="30" r:id="rId11"/>
-    <sheet name="Alias-Categoria" sheetId="31" r:id="rId12"/>
-    <sheet name="PP_Template" sheetId="12" r:id="rId13"/>
-    <sheet name="PP_01" sheetId="2" r:id="rId14"/>
-    <sheet name="PP_02" sheetId="13" r:id="rId15"/>
-    <sheet name="PP_03" sheetId="14" r:id="rId16"/>
-    <sheet name="PP_04" sheetId="16" r:id="rId17"/>
-    <sheet name="PP_05" sheetId="17" r:id="rId18"/>
-    <sheet name="PP_06" sheetId="18" r:id="rId19"/>
-    <sheet name="PP_07" sheetId="19" r:id="rId20"/>
-    <sheet name="PP_08" sheetId="20" r:id="rId21"/>
-    <sheet name="PP_09" sheetId="21" r:id="rId22"/>
-    <sheet name="PP_10" sheetId="22" r:id="rId23"/>
-    <sheet name="PP_11" sheetId="23" r:id="rId24"/>
-    <sheet name="PP_12" sheetId="24" r:id="rId25"/>
-    <sheet name="PP_13" sheetId="25" r:id="rId26"/>
-    <sheet name="PP_14" sheetId="26" r:id="rId27"/>
-    <sheet name="PP_15" sheetId="27" r:id="rId28"/>
-    <sheet name="PP_16" sheetId="28" r:id="rId29"/>
-    <sheet name="PP_17" sheetId="29" r:id="rId30"/>
+    <sheet name="CN43N" sheetId="34" r:id="rId5"/>
+    <sheet name="pivot di appoggio" sheetId="33" r:id="rId6"/>
+    <sheet name="table_tabProjType" sheetId="8" r:id="rId7"/>
+    <sheet name="table_tabProjTypeCluster" sheetId="9" r:id="rId8"/>
+    <sheet name="table_CommonTable" sheetId="10" r:id="rId9"/>
+    <sheet name="table_tabProgettiD" sheetId="11" r:id="rId10"/>
+    <sheet name="Powerpoint Configuration" sheetId="32" r:id="rId11"/>
+    <sheet name="Alias-Business" sheetId="30" r:id="rId12"/>
+    <sheet name="Alias-Categoria" sheetId="31" r:id="rId13"/>
+    <sheet name="PP_Template" sheetId="12" r:id="rId14"/>
+    <sheet name="PP_01" sheetId="2" r:id="rId15"/>
+    <sheet name="PP_02" sheetId="13" r:id="rId16"/>
+    <sheet name="PP_03" sheetId="14" r:id="rId17"/>
+    <sheet name="PP_04" sheetId="16" r:id="rId18"/>
+    <sheet name="PP_05" sheetId="17" r:id="rId19"/>
+    <sheet name="PP_06" sheetId="18" r:id="rId20"/>
+    <sheet name="PP_07" sheetId="19" r:id="rId21"/>
+    <sheet name="PP_08" sheetId="20" r:id="rId22"/>
+    <sheet name="PP_09" sheetId="21" r:id="rId23"/>
+    <sheet name="PP_10" sheetId="22" r:id="rId24"/>
+    <sheet name="PP_11" sheetId="23" r:id="rId25"/>
+    <sheet name="PP_12" sheetId="24" r:id="rId26"/>
+    <sheet name="PP_13" sheetId="25" r:id="rId27"/>
+    <sheet name="PP_14" sheetId="26" r:id="rId28"/>
+    <sheet name="PP_15" sheetId="27" r:id="rId29"/>
+    <sheet name="PP_16" sheetId="28" r:id="rId30"/>
+    <sheet name="PP_17" sheetId="29" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName name="anno">"2025"</definedName>
@@ -52,7 +53,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId31"/>
+    <pivotCache cacheId="5" r:id="rId32"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="327">
   <si>
     <t>FORMULA</t>
   </si>
@@ -1014,6 +1015,75 @@
   </si>
   <si>
     <t>BussinessArea Cluster</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Project definition</t>
+  </si>
+  <si>
+    <t>Short ID (WBS elem)</t>
+  </si>
+  <si>
+    <t>WBS element</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Proj.type</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Results Analysis Key</t>
+  </si>
+  <si>
+    <t>Competence date</t>
+  </si>
+  <si>
+    <t>TechPlat/MachTp</t>
+  </si>
+  <si>
+    <t>Profit center</t>
+  </si>
+  <si>
+    <t>Basic start date</t>
+  </si>
+  <si>
+    <t>Colonna1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>A005.01234</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>GD01</t>
+  </si>
+  <si>
+    <t>REL</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>A005.01234.PK</t>
+  </si>
+  <si>
+    <t>Packer</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2156,15 +2226,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2338,8 +2470,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="30" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="29" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2362,6 +2512,13 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2408,59 +2565,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="62" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="30" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="63" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="11" fillId="23" borderId="63" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="29" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="35" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="63" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normale 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normale 8" xfId="5" xr:uid="{D97E68AC-3D84-4802-A719-1B1AD764A407}"/>
   </cellStyles>
   <dxfs count="70">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2560,6 +2701,21 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -7425,11 +7581,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Michele Fosco" refreshedDate="45989.860169675929" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{CB458B9C-2737-4B20-917D-2647C9E1155E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Michele Fosco" refreshedDate="45989.874549537039" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{CB458B9C-2737-4B20-917D-2647C9E1155E}">
   <cacheSource type="worksheet">
     <worksheetSource name="tabSuperdettagli"/>
   </cacheSource>
-  <cacheFields count="81">
+  <cacheFields count="82">
     <cacheField name="da considerare?_" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -7457,13 +7613,13 @@
     <cacheField name="U ProjType_" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="ProjType Cluster 1_" numFmtId="0">
+    <cacheField name="ProjType Cluster" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="ProjType Cluster 2_" numFmtId="0">
+    <cacheField name="ProjType Cluster2" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
-    <cacheField name="BussinessArea Cluster 1_" numFmtId="0">
+    <cacheField name="BussinessArea Cluster" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="ORE_" numFmtId="0">
@@ -7529,37 +7685,28 @@
     <cacheField name="WBE per WBS-K" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Sender Cost Center2" numFmtId="0">
+    <cacheField name="Sender Cost Center" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Personnel Number3" numFmtId="0">
+    <cacheField name="Personnel Number" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Last name First name4" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
-        <s v="pippo"/>
-        <s v="A" u="1"/>
-        <m u="1"/>
-        <s v="B" u="1"/>
-        <s v="C" u="1"/>
-        <s v="D" u="1"/>
-        <s v="E" u="1"/>
-        <s v="F" u="1"/>
-      </sharedItems>
+    <cacheField name="Last name First name" numFmtId="0">
+      <sharedItems/>
     </cacheField>
-    <cacheField name="Project Description5" numFmtId="0">
+    <cacheField name="Project Description" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="WBS Element6" numFmtId="0">
+    <cacheField name="WBS Element" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Network7" numFmtId="0">
+    <cacheField name="Network" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Operation/Activity8" numFmtId="0">
+    <cacheField name="Operation/Activity" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2023" maxValue="2025"/>
     </cacheField>
-    <cacheField name="Acct assgnt text9" numFmtId="0">
+    <cacheField name="Acct assgnt text" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="WBS Element - Project Definition (Text)" numFmtId="0">
@@ -7568,58 +7715,58 @@
     <cacheField name="Network descr" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="PROJ CODE10" numFmtId="0">
+    <cacheField name="PROJ CODE" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="INT/EST" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="RAGGR X STRUTTURA 11" numFmtId="0">
+    <cacheField name="Raggr. X Struttura" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="MESE" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Resp 2°liv12" numFmtId="0">
+    <cacheField name="Resp 2°liv" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="CDC bdg13" numFmtId="0">
+    <cacheField name="CDC bdg" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Resp 1°liv14" numFmtId="0">
+    <cacheField name="Resp 1°liv" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Resp DT15" numFmtId="0">
+    <cacheField name="Resp DT" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="TIPO REP16" numFmtId="0">
+    <cacheField name="TIPO REP" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Bus Area GDLT" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Bus Area_217" numFmtId="0">
+    <cacheField name="Bus Area_2" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="tipo progetto18" numFmtId="0">
+    <cacheField name="tipo progetto" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Proj name19" numFmtId="0">
+    <cacheField name="Proj name" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="machine code20" numFmtId="0">
+    <cacheField name="machine code" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="product area21" numFmtId="0">
+    <cacheField name="product area" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="84"/>
     </cacheField>
-    <cacheField name="Resp del Prodotto22" numFmtId="0">
+    <cacheField name="Resp del Prodotto" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="Area di bdg" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
     </cacheField>
-    <cacheField name="Macchina23" numFmtId="0">
+    <cacheField name="Macchina" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="Sottotipo" numFmtId="0">
@@ -7631,40 +7778,40 @@
     <cacheField name="Quadrante" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
-    <cacheField name="01.AAAA" numFmtId="0">
+    <cacheField name="01.2025" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
-    <cacheField name="02.AAAA" numFmtId="0">
+    <cacheField name="02.2025" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
-    <cacheField name="03.AAAA" numFmtId="0">
+    <cacheField name="03.2025" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
-    <cacheField name="04.AAAA" numFmtId="0">
+    <cacheField name="04.2025" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
-    <cacheField name="05.AAAA" numFmtId="0">
+    <cacheField name="05.2025" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
-    <cacheField name="06.AAAA" numFmtId="0">
+    <cacheField name="06.2025" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="84"/>
     </cacheField>
-    <cacheField name="07.AAAA" numFmtId="0">
+    <cacheField name="07.2025" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="08.AAAA" numFmtId="0">
+    <cacheField name="08.2025" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="09.AAAA" numFmtId="0">
+    <cacheField name="09.2025" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="10.AAAA" numFmtId="0">
+    <cacheField name="10.2025" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="11.AAAA" numFmtId="0">
+    <cacheField name="11.2025" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="12.AAAA" numFmtId="0">
+    <cacheField name="12.2025" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Total" numFmtId="0">
@@ -7689,6 +7836,9 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Data Uscita GD" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="REP UT" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
   </cacheFields>
@@ -7735,7 +7885,7 @@
     <s v="AAAA.0001"/>
     <s v="C005RD319"/>
     <s v="MIL ANTONY"/>
-    <x v="0"/>
+    <s v="pippo"/>
     <s v="ANALISI RICHIESTE MINORI KIT+QUOT. TOB"/>
     <s v="Stay"/>
     <s v="AAAA.0001"/>
@@ -7784,6 +7934,7 @@
     <m/>
     <s v="E2 "/>
     <m/>
+    <m/>
   </r>
   <r>
     <s v="no"/>
@@ -7794,7 +7945,7 @@
     <s v=""/>
     <s v="C A R E"/>
     <m/>
-    <e v="#REF!"/>
+    <s v="Int"/>
     <n v="0"/>
     <n v="0"/>
     <n v="0"/>
@@ -7818,10 +7969,11 @@
     <s v="AAAA.0001"/>
     <m/>
     <m/>
-    <x v="0"/>
+    <s v="pippo"/>
     <m/>
     <m/>
     <s v="AAAA.0001"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -7877,7 +8029,7 @@
     <s v=""/>
     <s v="5"/>
     <m/>
-    <e v="#REF!"/>
+    <s v="Int"/>
     <s v="10"/>
     <n v="0"/>
     <n v="0"/>
@@ -7901,7 +8053,7 @@
     <s v="5447634"/>
     <s v="C005RD234"/>
     <s v="ROSSI MARIO"/>
-    <x v="0"/>
+    <s v="pippo"/>
     <s v="FATTIBILITA' DEL 2025 TOBACCO"/>
     <s v="Stay"/>
     <s v="5447634"/>
@@ -7950,6 +8102,7 @@
     <m/>
     <s v=""/>
     <m/>
+    <m/>
   </r>
   <r>
     <s v="no"/>
@@ -7960,7 +8113,7 @@
     <s v=""/>
     <s v="5"/>
     <m/>
-    <e v="#REF!"/>
+    <s v="Int"/>
     <s v="10"/>
     <n v="0"/>
     <n v="0"/>
@@ -7984,7 +8137,7 @@
     <s v="5447634"/>
     <s v="C005RD234"/>
     <s v="SMEI LUCA"/>
-    <x v="0"/>
+    <s v="pippo"/>
     <s v="FATTIBILITA' DEL 2025 TOBACCO"/>
     <s v="Stay"/>
     <s v="5447634"/>
@@ -8033,6 +8186,7 @@
     <m/>
     <s v=""/>
     <m/>
+    <m/>
   </r>
   <r>
     <s v="no"/>
@@ -8043,7 +8197,7 @@
     <s v=""/>
     <s v="5"/>
     <m/>
-    <e v="#REF!"/>
+    <s v="Int"/>
     <s v="10"/>
     <n v="0"/>
     <n v="0"/>
@@ -8067,7 +8221,7 @@
     <s v="5447634"/>
     <s v="C005RD234"/>
     <s v="ROSSI MARIO"/>
-    <x v="0"/>
+    <s v="pippo"/>
     <s v="FATTIBILITA' DEL 2025 TOBACCO"/>
     <s v="Go"/>
     <s v="5447634"/>
@@ -8116,6 +8270,7 @@
     <m/>
     <s v=""/>
     <m/>
+    <m/>
   </r>
   <r>
     <s v="no"/>
@@ -8126,7 +8281,7 @@
     <s v=""/>
     <s v="5"/>
     <m/>
-    <e v="#REF!"/>
+    <s v="Int"/>
     <s v="10"/>
     <n v="0"/>
     <n v="0"/>
@@ -8150,7 +8305,7 @@
     <s v="5447634"/>
     <s v="C005RD234"/>
     <s v="SMEI LUCA"/>
-    <x v="0"/>
+    <s v="pippo"/>
     <s v="FATTIBILITA' DEL 2025 TOBACCO"/>
     <s v="Go"/>
     <s v="5447634"/>
@@ -8199,6 +8354,7 @@
     <m/>
     <s v=""/>
     <m/>
+    <m/>
   </r>
   <r>
     <s v="no"/>
@@ -8209,7 +8365,7 @@
     <s v=""/>
     <s v="5"/>
     <m/>
-    <e v="#REF!"/>
+    <s v="Int"/>
     <s v="10"/>
     <n v="0"/>
     <n v="1"/>
@@ -8233,7 +8389,7 @@
     <s v="5320326"/>
     <s v="C005RD319"/>
     <s v="MIL ANTONY"/>
-    <x v="0"/>
+    <s v="pippo"/>
     <s v="ANALISI RICHIESTE MINORI KIT+QUOT. TOB"/>
     <s v="Stay"/>
     <s v="5320326"/>
@@ -8282,14 +8438,15 @@
     <m/>
     <s v="E2 "/>
     <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B983B66-B099-438E-BDD3-F97341231C91}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B983B66-B099-438E-BDD3-F97341231C91}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="81">
+  <pivotFields count="82">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
@@ -8302,6 +8459,7 @@
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -8416,9 +8574,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7734A62-7ED5-4AFF-A8FC-4DBDCFB88283}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D5:D15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="81">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B7734A62-7ED5-4AFF-A8FC-4DBDCFB88283}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D5:D12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="82">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -8434,47 +8592,6 @@
         <item m="1" x="3"/>
         <item x="2"/>
         <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="9">
-        <item m="1" x="1"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="2"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -8527,21 +8644,47 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="3">
+  <rowFields count="2">
     <field x="2"/>
     <field x="3"/>
-    <field x="32"/>
   </rowFields>
-  <rowItems count="10">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
     <i r="1">
       <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
     </i>
     <i>
       <x v="1"/>
@@ -8549,17 +8692,11 @@
     <i r="1">
       <x v="2"/>
     </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
     <i>
       <x v="2"/>
     </i>
     <i r="1">
       <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -8631,7 +8768,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="tblFieldFilters1213" displayName="tblFieldFilters1213" ref="K3:L15" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="tblFieldFilters1213" displayName="tblFieldFilters1213" ref="K3:L15" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="K3:L15" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K4:L15">
     <sortCondition ref="K4:K15"/>
@@ -8754,14 +8891,14 @@
         IF( tabSuperdettagli[[#This Row],[ProjType_]]="U",  "U (" &amp; tabSuperdettagli[[#This Row],[U ProjType_]] &amp; ")",
         tabSuperdettagli[[#This Row],[ProjType_]]) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="ProjType Cluster2" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="BussinessArea Cluster" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="ProjType Cluster2" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="BussinessArea Cluster" dataDxfId="23">
       <calculatedColumnFormula>IF(  TRIM(#REF!)&gt; "", TRIM(#REF!), TRIM(tabSuperdettagli[[#This Row],[Resp DT]] ) )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="ORE_" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="ORE_" dataDxfId="22">
       <calculatedColumnFormula>tabSuperdettagli[[#This Row],[07.2025]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="gen_" dataDxfId="24">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="gen_" dataDxfId="21">
       <calculatedColumnFormula>tabSuperdettagli[[#This Row],[Resp del Prodotto]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="feb_">
@@ -8777,28 +8914,28 @@
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="ott_"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="nov_"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" name="dic_"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="tipo risorsa_" dataDxfId="23">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="tipo risorsa_" dataDxfId="20">
       <calculatedColumnFormula>tabSuperdettagli[[#This Row],[PROJ CODE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="Resp 1°liv_" dataDxfId="22">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="Resp 1°liv_" dataDxfId="19">
       <calculatedColumnFormula>tabSuperdettagli[[#This Row],[Resp 2°liv]]&amp;""</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" name="EngUnit area cluster 1_" dataDxfId="21">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" name="EngUnit area cluster 1_" dataDxfId="18">
       <calculatedColumnFormula>INDEX(     tab_resp1liv[EngUnit area cluster 1_],
                     MATCH(   SUBSTITUTE(tabSuperdettagli[[#This Row],[Resp 2°liv]],  " ", ""),
                                       tab_resp1liv[SearchKey],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0300-00001A000000}" name="WBS description_" dataDxfId="20">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0300-00001A000000}" name="WBS description_" dataDxfId="17">
       <calculatedColumnFormula>tabSuperdettagli[[#This Row],[WBS Element]]&amp;""</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0300-00001B000000}" name="WBE description_" dataDxfId="19">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0300-00001B000000}" name="WBE description_" dataDxfId="16">
       <calculatedColumnFormula>tabSuperdettagli[[#This Row],[09.2025]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0300-00001C000000}" name="WBS D description_" dataDxfId="18"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0300-00001D000000}" name="WBS M description_" dataDxfId="17">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0300-00001C000000}" name="WBS D description_" dataDxfId="15"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0300-00001D000000}" name="WBS M description_" dataDxfId="14">
       <calculatedColumnFormula>IF( tabSuperdettagli[[#This Row],[ProjType_]]="M",  IF(  AND(tabSuperdettagli[[#This Row],[Resp 1°liv_]]="Guidotti C.", tabSuperdettagli[[#This Row],[WBE description_]]="Machine Mgmt"), "Documentation", tabSuperdettagli[[#This Row],[WBE description_]]),  "" )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0300-00001E000000}" name="WBE per WBS-K" dataDxfId="16">
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0300-00001E000000}" name="WBE per WBS-K" dataDxfId="13">
       <calculatedColumnFormula>LEFT(tabSuperdettagli[[#This Row],[Network]], 18 )</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0300-00001F000000}" name="Sender Cost Center"/>
@@ -8859,13 +8996,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tab_ProjType" displayName="tab_ProjType" ref="F1:I15" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tab_ProjType" displayName="tab_ProjType" ref="F1:I15" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="F1:I15" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Macro area" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Macro area" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ProjType"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ProjType Cluster 1" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ProjType Cluster 2" dataDxfId="12" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ProjType Cluster 1" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ProjType Cluster 2" dataDxfId="9" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8877,8 +9014,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Macro area"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="ProjType"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="ProjType Cluster 1" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="ProjType Cluster 2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="ProjType Cluster 1" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="ProjType Cluster 2" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8888,7 +9025,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="tab_resp1liv" displayName="tab_resp1liv" ref="A1:C27" totalsRowShown="0">
   <autoFilter ref="A1:C27" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="SearchKey" dataDxfId="9">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="SearchKey" dataDxfId="6">
       <calculatedColumnFormula>SUBSTITUTE(tab_resp1liv[[#This Row],[Resp 1°liv2]], " ", "")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Resp 1°liv2"/>
@@ -8913,15 +9050,15 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="tblIndexPowerpoint7" displayName="tblIndexPowerpoint7" ref="A3:F82" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="tblIndexPowerpoint7" displayName="tblIndexPowerpoint7" ref="A3:F82" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A3:F82" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Powerpoint File"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Title"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Content 1" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Content 2" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Content 3" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Layout" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Content 1" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Content 2" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Content 3" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Layout" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9220,29 +9357,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="115" t="s">
+      <c r="A1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
@@ -9382,13 +9519,2924 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A3:B363"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>98</v>
+      </c>
+      <c r="B65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>98</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>98</v>
+      </c>
+      <c r="B83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>98</v>
+      </c>
+      <c r="B103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>98</v>
+      </c>
+      <c r="B110" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>98</v>
+      </c>
+      <c r="B111" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>98</v>
+      </c>
+      <c r="B112" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>98</v>
+      </c>
+      <c r="B113" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>98</v>
+      </c>
+      <c r="B114" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>98</v>
+      </c>
+      <c r="B115" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>98</v>
+      </c>
+      <c r="B116" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>98</v>
+      </c>
+      <c r="B117" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>98</v>
+      </c>
+      <c r="B118" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>98</v>
+      </c>
+      <c r="B119" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>98</v>
+      </c>
+      <c r="B120" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>98</v>
+      </c>
+      <c r="B121" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>98</v>
+      </c>
+      <c r="B123" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>98</v>
+      </c>
+      <c r="B124" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>98</v>
+      </c>
+      <c r="B125" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>98</v>
+      </c>
+      <c r="B126" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>98</v>
+      </c>
+      <c r="B127" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>98</v>
+      </c>
+      <c r="B128" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>98</v>
+      </c>
+      <c r="B129" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>98</v>
+      </c>
+      <c r="B130" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>98</v>
+      </c>
+      <c r="B131" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>98</v>
+      </c>
+      <c r="B132" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>98</v>
+      </c>
+      <c r="B133" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>98</v>
+      </c>
+      <c r="B134" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>98</v>
+      </c>
+      <c r="B135" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>98</v>
+      </c>
+      <c r="B136" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>98</v>
+      </c>
+      <c r="B137" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>98</v>
+      </c>
+      <c r="B138" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>98</v>
+      </c>
+      <c r="B139" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>98</v>
+      </c>
+      <c r="B140" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>98</v>
+      </c>
+      <c r="B141" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>98</v>
+      </c>
+      <c r="B142" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>98</v>
+      </c>
+      <c r="B143" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>98</v>
+      </c>
+      <c r="B144" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>98</v>
+      </c>
+      <c r="B145" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>98</v>
+      </c>
+      <c r="B146" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>98</v>
+      </c>
+      <c r="B147" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>98</v>
+      </c>
+      <c r="B148" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>98</v>
+      </c>
+      <c r="B149" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>98</v>
+      </c>
+      <c r="B150" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>98</v>
+      </c>
+      <c r="B151" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>98</v>
+      </c>
+      <c r="B152" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>98</v>
+      </c>
+      <c r="B153" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>98</v>
+      </c>
+      <c r="B154" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>98</v>
+      </c>
+      <c r="B155" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>98</v>
+      </c>
+      <c r="B156" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>98</v>
+      </c>
+      <c r="B157" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>98</v>
+      </c>
+      <c r="B158" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>98</v>
+      </c>
+      <c r="B159" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>98</v>
+      </c>
+      <c r="B160" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>98</v>
+      </c>
+      <c r="B161" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>98</v>
+      </c>
+      <c r="B162" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>98</v>
+      </c>
+      <c r="B163" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>98</v>
+      </c>
+      <c r="B164" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>98</v>
+      </c>
+      <c r="B165" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>98</v>
+      </c>
+      <c r="B166" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>98</v>
+      </c>
+      <c r="B167" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>98</v>
+      </c>
+      <c r="B168" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>98</v>
+      </c>
+      <c r="B169" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>98</v>
+      </c>
+      <c r="B170" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>98</v>
+      </c>
+      <c r="B171" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>98</v>
+      </c>
+      <c r="B172" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>98</v>
+      </c>
+      <c r="B173" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>98</v>
+      </c>
+      <c r="B174" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>98</v>
+      </c>
+      <c r="B175" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>98</v>
+      </c>
+      <c r="B176" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>98</v>
+      </c>
+      <c r="B177" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>98</v>
+      </c>
+      <c r="B178" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>98</v>
+      </c>
+      <c r="B179" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>98</v>
+      </c>
+      <c r="B180" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>98</v>
+      </c>
+      <c r="B181" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>98</v>
+      </c>
+      <c r="B182" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>98</v>
+      </c>
+      <c r="B183" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>98</v>
+      </c>
+      <c r="B184" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>98</v>
+      </c>
+      <c r="B185" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>98</v>
+      </c>
+      <c r="B186" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>98</v>
+      </c>
+      <c r="B187" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>98</v>
+      </c>
+      <c r="B188" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>98</v>
+      </c>
+      <c r="B189" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>98</v>
+      </c>
+      <c r="B190" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>98</v>
+      </c>
+      <c r="B191" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>98</v>
+      </c>
+      <c r="B192" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>98</v>
+      </c>
+      <c r="B193" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>98</v>
+      </c>
+      <c r="B194" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>98</v>
+      </c>
+      <c r="B195" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>98</v>
+      </c>
+      <c r="B196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>98</v>
+      </c>
+      <c r="B197" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>98</v>
+      </c>
+      <c r="B198" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>98</v>
+      </c>
+      <c r="B199" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>98</v>
+      </c>
+      <c r="B200" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>98</v>
+      </c>
+      <c r="B201" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>98</v>
+      </c>
+      <c r="B202" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>98</v>
+      </c>
+      <c r="B203" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>98</v>
+      </c>
+      <c r="B204" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>98</v>
+      </c>
+      <c r="B205" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>98</v>
+      </c>
+      <c r="B206" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>98</v>
+      </c>
+      <c r="B207" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>98</v>
+      </c>
+      <c r="B208" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>98</v>
+      </c>
+      <c r="B209" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>98</v>
+      </c>
+      <c r="B210" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>98</v>
+      </c>
+      <c r="B211" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>98</v>
+      </c>
+      <c r="B212" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>98</v>
+      </c>
+      <c r="B213" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>98</v>
+      </c>
+      <c r="B214" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>98</v>
+      </c>
+      <c r="B215" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>98</v>
+      </c>
+      <c r="B216" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>98</v>
+      </c>
+      <c r="B217" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>98</v>
+      </c>
+      <c r="B218" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>98</v>
+      </c>
+      <c r="B219" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>98</v>
+      </c>
+      <c r="B220" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>98</v>
+      </c>
+      <c r="B221" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>98</v>
+      </c>
+      <c r="B222" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>98</v>
+      </c>
+      <c r="B223" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>98</v>
+      </c>
+      <c r="B224" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>98</v>
+      </c>
+      <c r="B225" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>98</v>
+      </c>
+      <c r="B226" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>98</v>
+      </c>
+      <c r="B227" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>98</v>
+      </c>
+      <c r="B228" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>98</v>
+      </c>
+      <c r="B229" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>98</v>
+      </c>
+      <c r="B230" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>98</v>
+      </c>
+      <c r="B231" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>98</v>
+      </c>
+      <c r="B232" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>98</v>
+      </c>
+      <c r="B233" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>98</v>
+      </c>
+      <c r="B234" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>98</v>
+      </c>
+      <c r="B235" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>98</v>
+      </c>
+      <c r="B236" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>98</v>
+      </c>
+      <c r="B237" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>98</v>
+      </c>
+      <c r="B238" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>98</v>
+      </c>
+      <c r="B239" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>98</v>
+      </c>
+      <c r="B240" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>98</v>
+      </c>
+      <c r="B241" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>98</v>
+      </c>
+      <c r="B242" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>98</v>
+      </c>
+      <c r="B243" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>98</v>
+      </c>
+      <c r="B244" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>98</v>
+      </c>
+      <c r="B245" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>98</v>
+      </c>
+      <c r="B246" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>98</v>
+      </c>
+      <c r="B247" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>98</v>
+      </c>
+      <c r="B248" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>98</v>
+      </c>
+      <c r="B249" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>98</v>
+      </c>
+      <c r="B250" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>98</v>
+      </c>
+      <c r="B251" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>98</v>
+      </c>
+      <c r="B252" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>98</v>
+      </c>
+      <c r="B253" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>98</v>
+      </c>
+      <c r="B254" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>98</v>
+      </c>
+      <c r="B255" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>98</v>
+      </c>
+      <c r="B256" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>98</v>
+      </c>
+      <c r="B257" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>98</v>
+      </c>
+      <c r="B258" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>98</v>
+      </c>
+      <c r="B259" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>98</v>
+      </c>
+      <c r="B260" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>98</v>
+      </c>
+      <c r="B261" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>98</v>
+      </c>
+      <c r="B262" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>98</v>
+      </c>
+      <c r="B263" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>98</v>
+      </c>
+      <c r="B264" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>98</v>
+      </c>
+      <c r="B265" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>98</v>
+      </c>
+      <c r="B266" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>98</v>
+      </c>
+      <c r="B267" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>98</v>
+      </c>
+      <c r="B268" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>98</v>
+      </c>
+      <c r="B269" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>98</v>
+      </c>
+      <c r="B270" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>98</v>
+      </c>
+      <c r="B271" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>98</v>
+      </c>
+      <c r="B272" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>98</v>
+      </c>
+      <c r="B273" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>98</v>
+      </c>
+      <c r="B274" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>98</v>
+      </c>
+      <c r="B275" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>98</v>
+      </c>
+      <c r="B276" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>98</v>
+      </c>
+      <c r="B277" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>98</v>
+      </c>
+      <c r="B278" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>98</v>
+      </c>
+      <c r="B279" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>98</v>
+      </c>
+      <c r="B280" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>98</v>
+      </c>
+      <c r="B281" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>98</v>
+      </c>
+      <c r="B282" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>98</v>
+      </c>
+      <c r="B283" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>98</v>
+      </c>
+      <c r="B284" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>98</v>
+      </c>
+      <c r="B285" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>98</v>
+      </c>
+      <c r="B286" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>98</v>
+      </c>
+      <c r="B287" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>98</v>
+      </c>
+      <c r="B288" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>98</v>
+      </c>
+      <c r="B289" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>98</v>
+      </c>
+      <c r="B290" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>98</v>
+      </c>
+      <c r="B291" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>98</v>
+      </c>
+      <c r="B292" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>98</v>
+      </c>
+      <c r="B293" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>98</v>
+      </c>
+      <c r="B294" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>98</v>
+      </c>
+      <c r="B295" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>98</v>
+      </c>
+      <c r="B296" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>98</v>
+      </c>
+      <c r="B297" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>98</v>
+      </c>
+      <c r="B298" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>98</v>
+      </c>
+      <c r="B299" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>98</v>
+      </c>
+      <c r="B300" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>98</v>
+      </c>
+      <c r="B301" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>98</v>
+      </c>
+      <c r="B302" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>98</v>
+      </c>
+      <c r="B303" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>98</v>
+      </c>
+      <c r="B304" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>98</v>
+      </c>
+      <c r="B305" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>98</v>
+      </c>
+      <c r="B306" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>98</v>
+      </c>
+      <c r="B307" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>98</v>
+      </c>
+      <c r="B308" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>98</v>
+      </c>
+      <c r="B309" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>98</v>
+      </c>
+      <c r="B310" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>98</v>
+      </c>
+      <c r="B311" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>98</v>
+      </c>
+      <c r="B312" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>98</v>
+      </c>
+      <c r="B313" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>98</v>
+      </c>
+      <c r="B314" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>98</v>
+      </c>
+      <c r="B315" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>98</v>
+      </c>
+      <c r="B316" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>98</v>
+      </c>
+      <c r="B317" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>98</v>
+      </c>
+      <c r="B318" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>98</v>
+      </c>
+      <c r="B319" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>98</v>
+      </c>
+      <c r="B320" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>98</v>
+      </c>
+      <c r="B321" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>98</v>
+      </c>
+      <c r="B322" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>98</v>
+      </c>
+      <c r="B323" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>98</v>
+      </c>
+      <c r="B324" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>98</v>
+      </c>
+      <c r="B325" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>98</v>
+      </c>
+      <c r="B326" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>98</v>
+      </c>
+      <c r="B327" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>98</v>
+      </c>
+      <c r="B328" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>98</v>
+      </c>
+      <c r="B329" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>98</v>
+      </c>
+      <c r="B330" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>98</v>
+      </c>
+      <c r="B331" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>98</v>
+      </c>
+      <c r="B332" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>98</v>
+      </c>
+      <c r="B333" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>98</v>
+      </c>
+      <c r="B334" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>98</v>
+      </c>
+      <c r="B335" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>98</v>
+      </c>
+      <c r="B336" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>98</v>
+      </c>
+      <c r="B337" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>98</v>
+      </c>
+      <c r="B338" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>98</v>
+      </c>
+      <c r="B339" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>98</v>
+      </c>
+      <c r="B340" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>98</v>
+      </c>
+      <c r="B341" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>98</v>
+      </c>
+      <c r="B342" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>98</v>
+      </c>
+      <c r="B343" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>98</v>
+      </c>
+      <c r="B344" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>98</v>
+      </c>
+      <c r="B345" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>98</v>
+      </c>
+      <c r="B346" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>98</v>
+      </c>
+      <c r="B347" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>98</v>
+      </c>
+      <c r="B348" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>98</v>
+      </c>
+      <c r="B349" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>98</v>
+      </c>
+      <c r="B350" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>98</v>
+      </c>
+      <c r="B351" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>98</v>
+      </c>
+      <c r="B352" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>98</v>
+      </c>
+      <c r="B353" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>98</v>
+      </c>
+      <c r="B354" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>98</v>
+      </c>
+      <c r="B355" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>98</v>
+      </c>
+      <c r="B356" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>98</v>
+      </c>
+      <c r="B357" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>98</v>
+      </c>
+      <c r="B358" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>98</v>
+      </c>
+      <c r="B359" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>98</v>
+      </c>
+      <c r="B360" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>98</v>
+      </c>
+      <c r="B361" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>98</v>
+      </c>
+      <c r="B362" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>98</v>
+      </c>
+      <c r="B363" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -9402,37 +12450,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="128" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
       <c r="G1" s="66"/>
       <c r="H1" s="66"/>
       <c r="I1" s="66"/>
       <c r="J1" s="66"/>
-      <c r="K1" s="120" t="s">
+      <c r="K1" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="120"/>
+      <c r="L1" s="129"/>
       <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
       <c r="I2" s="64"/>
       <c r="J2" s="64"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
       <c r="M2" s="64"/>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10848,7 +13896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -10862,10 +13910,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="122"/>
+      <c r="B1" s="131"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="83" t="s">
@@ -10992,7 +14040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -11006,10 +14054,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="130" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="122"/>
+      <c r="B1" s="131"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="83" t="s">
@@ -11136,7 +14184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
@@ -11150,10 +14198,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="132" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="123"/>
+      <c r="B1" s="132"/>
       <c r="C1" s="55"/>
       <c r="D1" s="56"/>
       <c r="E1" s="56"/>
@@ -11320,7 +14368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
@@ -11335,10 +14383,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
       <c r="C1" s="107"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -11375,30 +14423,30 @@
       <c r="C6" s="70"/>
     </row>
     <row r="22" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="124">
+      <c r="E22" s="133">
         <v>2023</v>
       </c>
-      <c r="F22" s="125"/>
-      <c r="G22" s="124">
+      <c r="F22" s="134"/>
+      <c r="G22" s="133">
         <v>2024</v>
       </c>
-      <c r="H22" s="125"/>
-      <c r="I22" s="130">
+      <c r="H22" s="134"/>
+      <c r="I22" s="139">
         <v>2025</v>
       </c>
-      <c r="J22" s="131"/>
-      <c r="K22" s="132">
+      <c r="J22" s="140"/>
+      <c r="K22" s="141">
         <v>2025</v>
       </c>
-      <c r="L22" s="133"/>
-      <c r="M22" s="124">
+      <c r="L22" s="142"/>
+      <c r="M22" s="133">
         <v>2025</v>
       </c>
-      <c r="N22" s="125"/>
-      <c r="O22" s="126" t="s">
+      <c r="N22" s="134"/>
+      <c r="O22" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="P22" s="127"/>
+      <c r="P22" s="136"/>
     </row>
     <row r="23" spans="4:16" ht="30" x14ac:dyDescent="0.25">
       <c r="D23" s="89"/>
@@ -11973,9 +15021,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -11992,10 +15040,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -12021,42 +15069,27 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="111" t="s">
-        <v>265</v>
+      <c r="D8" s="70">
+        <v>2023</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="70">
-        <v>2023</v>
+      <c r="D9" s="110" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="110" t="s">
-        <v>213</v>
+      <c r="D10" s="70">
+        <v>2026</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="111" t="s">
-        <v>265</v>
+      <c r="D11" s="110" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="70">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="110" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="111" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="70" t="s">
+      <c r="D12" s="70" t="s">
         <v>262</v>
       </c>
     </row>
@@ -12069,7 +15102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -12083,10 +15116,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -12105,7 +15138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -12119,10 +15152,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -12141,7 +15174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -12155,10 +15188,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -12166,42 +15199,6 @@
       </c>
       <c r="B2" s="106" t="s">
         <v>189</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="129"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="106" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -12252,34 +15249,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="117" t="s">
+      <c r="A1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="118"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="123"/>
+      <c r="V1" s="123"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="124"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
@@ -12457,6 +15454,42 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="137" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="138"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -12470,10 +15503,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -12492,7 +15525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -12506,10 +15539,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -12528,7 +15561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -12542,10 +15575,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -12564,7 +15597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -12578,10 +15611,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -12600,7 +15633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -12614,10 +15647,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -12636,7 +15669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -12650,10 +15683,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -12672,7 +15705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -12686,10 +15719,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -12708,7 +15741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -12722,10 +15755,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -12744,7 +15777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -12758,46 +15791,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="106" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -12912,6 +15909,42 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="137" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="138"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="106" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -12925,10 +15958,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="138"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
@@ -13049,338 +16082,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="142" t="s">
+      <c r="A1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
+      <c r="AA1" s="119"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="119"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143"/>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="143"/>
-      <c r="AN1" s="143"/>
-      <c r="AO1" s="143"/>
-      <c r="AP1" s="143"/>
-      <c r="AQ1" s="143"/>
-      <c r="AR1" s="143"/>
-      <c r="AS1" s="143"/>
-      <c r="AT1" s="143"/>
-      <c r="AU1" s="143"/>
-      <c r="AV1" s="143"/>
-      <c r="AW1" s="143"/>
-      <c r="AX1" s="143"/>
-      <c r="AY1" s="143"/>
-      <c r="AZ1" s="143"/>
-      <c r="BA1" s="143"/>
-      <c r="BB1" s="143"/>
-      <c r="BC1" s="143"/>
-      <c r="BD1" s="143"/>
-      <c r="BE1" s="143"/>
-      <c r="BF1" s="143"/>
-      <c r="BG1" s="143"/>
-      <c r="BH1" s="143"/>
-      <c r="BI1" s="143"/>
-      <c r="BJ1" s="143"/>
-      <c r="BK1" s="143"/>
-      <c r="BL1" s="143"/>
-      <c r="BM1" s="143"/>
-      <c r="BN1" s="143"/>
-      <c r="BO1" s="143"/>
-      <c r="BP1" s="143"/>
-      <c r="BQ1" s="143"/>
-      <c r="BR1" s="143"/>
-      <c r="BS1" s="143"/>
-      <c r="BT1" s="143"/>
-      <c r="BU1" s="143"/>
-      <c r="BV1" s="143"/>
-      <c r="BW1" s="143"/>
-      <c r="BX1" s="143"/>
-      <c r="BY1" s="143"/>
-      <c r="BZ1" s="143"/>
-      <c r="CA1" s="143"/>
-      <c r="CB1" s="143"/>
-      <c r="CC1" s="143"/>
-      <c r="CD1" s="144"/>
+      <c r="AF1" s="126"/>
+      <c r="AG1" s="126"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="126"/>
+      <c r="AK1" s="126"/>
+      <c r="AL1" s="126"/>
+      <c r="AM1" s="126"/>
+      <c r="AN1" s="126"/>
+      <c r="AO1" s="126"/>
+      <c r="AP1" s="126"/>
+      <c r="AQ1" s="126"/>
+      <c r="AR1" s="126"/>
+      <c r="AS1" s="126"/>
+      <c r="AT1" s="126"/>
+      <c r="AU1" s="126"/>
+      <c r="AV1" s="126"/>
+      <c r="AW1" s="126"/>
+      <c r="AX1" s="126"/>
+      <c r="AY1" s="126"/>
+      <c r="AZ1" s="126"/>
+      <c r="BA1" s="126"/>
+      <c r="BB1" s="126"/>
+      <c r="BC1" s="126"/>
+      <c r="BD1" s="126"/>
+      <c r="BE1" s="126"/>
+      <c r="BF1" s="126"/>
+      <c r="BG1" s="126"/>
+      <c r="BH1" s="126"/>
+      <c r="BI1" s="126"/>
+      <c r="BJ1" s="126"/>
+      <c r="BK1" s="126"/>
+      <c r="BL1" s="126"/>
+      <c r="BM1" s="126"/>
+      <c r="BN1" s="126"/>
+      <c r="BO1" s="126"/>
+      <c r="BP1" s="126"/>
+      <c r="BQ1" s="126"/>
+      <c r="BR1" s="126"/>
+      <c r="BS1" s="126"/>
+      <c r="BT1" s="126"/>
+      <c r="BU1" s="126"/>
+      <c r="BV1" s="126"/>
+      <c r="BW1" s="126"/>
+      <c r="BX1" s="126"/>
+      <c r="BY1" s="126"/>
+      <c r="BZ1" s="126"/>
+      <c r="CA1" s="126"/>
+      <c r="CB1" s="126"/>
+      <c r="CC1" s="126"/>
+      <c r="CD1" s="127"/>
     </row>
     <row r="2" spans="1:82" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="117" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="145" t="s">
+      <c r="E2" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="117" t="s">
         <v>301</v>
       </c>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="117" t="s">
         <v>302</v>
       </c>
-      <c r="I2" s="145" t="s">
+      <c r="I2" s="117" t="s">
         <v>303</v>
       </c>
-      <c r="J2" s="145" t="s">
+      <c r="J2" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="145" t="s">
+      <c r="K2" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="145" t="s">
+      <c r="L2" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="145" t="s">
+      <c r="M2" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="145" t="s">
+      <c r="N2" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="145" t="s">
+      <c r="O2" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="145" t="s">
+      <c r="P2" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="145" t="s">
+      <c r="Q2" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="R2" s="145" t="s">
+      <c r="R2" s="117" t="s">
         <v>60</v>
       </c>
-      <c r="S2" s="145" t="s">
+      <c r="S2" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="T2" s="145" t="s">
+      <c r="T2" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="145" t="s">
+      <c r="U2" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="V2" s="145" t="s">
+      <c r="V2" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="145" t="s">
+      <c r="W2" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="X2" s="145" t="s">
+      <c r="X2" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="Y2" s="145" t="s">
+      <c r="Y2" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="145" t="s">
+      <c r="Z2" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="AA2" s="145" t="s">
+      <c r="AA2" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" s="145" t="s">
+      <c r="AB2" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="AC2" s="145" t="s">
+      <c r="AC2" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="AD2" s="145" t="s">
+      <c r="AD2" s="117" t="s">
         <v>71</v>
       </c>
-      <c r="AE2" s="136" t="s">
+      <c r="AE2" s="111" t="s">
         <v>266</v>
       </c>
-      <c r="AF2" s="136" t="s">
+      <c r="AF2" s="111" t="s">
         <v>267</v>
       </c>
-      <c r="AG2" s="136" t="s">
+      <c r="AG2" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="AH2" s="136" t="s">
+      <c r="AH2" s="111" t="s">
         <v>269</v>
       </c>
-      <c r="AI2" s="136" t="s">
+      <c r="AI2" s="111" t="s">
         <v>270</v>
       </c>
-      <c r="AJ2" s="136" t="s">
+      <c r="AJ2" s="111" t="s">
         <v>271</v>
       </c>
-      <c r="AK2" s="136" t="s">
+      <c r="AK2" s="111" t="s">
         <v>272</v>
       </c>
-      <c r="AL2" s="136" t="s">
+      <c r="AL2" s="111" t="s">
         <v>273</v>
       </c>
-      <c r="AM2" s="137" t="s">
+      <c r="AM2" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="AN2" s="136" t="s">
+      <c r="AN2" s="111" t="s">
         <v>239</v>
       </c>
-      <c r="AO2" s="136" t="s">
+      <c r="AO2" s="111" t="s">
         <v>274</v>
       </c>
-      <c r="AP2" s="136" t="s">
+      <c r="AP2" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="AQ2" s="136" t="s">
+      <c r="AQ2" s="111" t="s">
         <v>275</v>
       </c>
-      <c r="AR2" s="136" t="s">
+      <c r="AR2" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="AS2" s="136" t="s">
+      <c r="AS2" s="111" t="s">
         <v>276</v>
       </c>
-      <c r="AT2" s="136" t="s">
+      <c r="AT2" s="111" t="s">
         <v>277</v>
       </c>
-      <c r="AU2" s="136" t="s">
+      <c r="AU2" s="111" t="s">
         <v>278</v>
       </c>
-      <c r="AV2" s="136" t="s">
+      <c r="AV2" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="AW2" s="136" t="s">
+      <c r="AW2" s="111" t="s">
         <v>280</v>
       </c>
-      <c r="AX2" s="136" t="s">
+      <c r="AX2" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="AY2" s="136" t="s">
+      <c r="AY2" s="111" t="s">
         <v>281</v>
       </c>
-      <c r="AZ2" s="138" t="s">
+      <c r="AZ2" s="113" t="s">
         <v>282</v>
       </c>
-      <c r="BA2" s="136" t="s">
+      <c r="BA2" s="111" t="s">
         <v>283</v>
       </c>
-      <c r="BB2" s="136" t="s">
+      <c r="BB2" s="111" t="s">
         <v>284</v>
       </c>
-      <c r="BC2" s="136" t="s">
+      <c r="BC2" s="111" t="s">
         <v>285</v>
       </c>
-      <c r="BD2" s="136" t="s">
+      <c r="BD2" s="111" t="s">
         <v>286</v>
       </c>
-      <c r="BE2" s="136" t="s">
+      <c r="BE2" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="BF2" s="138" t="s">
+      <c r="BF2" s="113" t="s">
         <v>287</v>
       </c>
-      <c r="BG2" s="136" t="s">
+      <c r="BG2" s="111" t="s">
         <v>244</v>
       </c>
-      <c r="BH2" s="136" t="s">
+      <c r="BH2" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="BI2" s="136" t="s">
+      <c r="BI2" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="BJ2" s="139" t="s">
+      <c r="BJ2" s="114" t="s">
         <v>288</v>
       </c>
-      <c r="BK2" s="139" t="s">
+      <c r="BK2" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="BL2" s="139" t="s">
+      <c r="BL2" s="114" t="s">
         <v>290</v>
       </c>
-      <c r="BM2" s="139" t="s">
+      <c r="BM2" s="114" t="s">
         <v>291</v>
       </c>
-      <c r="BN2" s="139" t="s">
+      <c r="BN2" s="114" t="s">
         <v>292</v>
       </c>
-      <c r="BO2" s="139" t="s">
+      <c r="BO2" s="114" t="s">
         <v>293</v>
       </c>
-      <c r="BP2" s="139" t="s">
+      <c r="BP2" s="114" t="s">
         <v>294</v>
       </c>
-      <c r="BQ2" s="139" t="s">
+      <c r="BQ2" s="114" t="s">
         <v>295</v>
       </c>
-      <c r="BR2" s="136" t="s">
+      <c r="BR2" s="111" t="s">
         <v>296</v>
       </c>
-      <c r="BS2" s="136" t="s">
+      <c r="BS2" s="111" t="s">
         <v>297</v>
       </c>
-      <c r="BT2" s="136" t="s">
+      <c r="BT2" s="111" t="s">
         <v>298</v>
       </c>
-      <c r="BU2" s="136" t="s">
+      <c r="BU2" s="111" t="s">
         <v>299</v>
       </c>
-      <c r="BV2" s="136" t="s">
+      <c r="BV2" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="BW2" s="136" t="s">
+      <c r="BW2" s="111" t="s">
         <v>248</v>
       </c>
-      <c r="BX2" s="136" t="s">
+      <c r="BX2" s="111" t="s">
         <v>249</v>
       </c>
-      <c r="BY2" s="136" t="s">
+      <c r="BY2" s="111" t="s">
         <v>250</v>
       </c>
-      <c r="BZ2" s="136" t="s">
+      <c r="BZ2" s="111" t="s">
         <v>251</v>
       </c>
-      <c r="CA2" s="136" t="s">
+      <c r="CA2" s="111" t="s">
         <v>252</v>
       </c>
-      <c r="CB2" s="140" t="s">
+      <c r="CB2" s="115" t="s">
         <v>253</v>
       </c>
-      <c r="CC2" s="140" t="s">
+      <c r="CC2" s="115" t="s">
         <v>254</v>
       </c>
-      <c r="CD2" s="141" t="s">
+      <c r="CD2" s="116" t="s">
         <v>300</v>
       </c>
     </row>
@@ -13412,7 +16445,7 @@
         <f>IF(OR(tabSuperdettagli[[#This Row],[ProjType_]]="C",tabSuperdettagli[[#This Row],[ProjType_]]="A",tabSuperdettagli[[#This Row],[ProjType_]]="R",tabSuperdettagli[[#This Row],[ProjType_]]="E"),"C A R E",IF(tabSuperdettagli[[#This Row],[ProjType_]]="U","U ("&amp;tabSuperdettagli[[#This Row],[U ProjType_]]&amp;")",tabSuperdettagli[[#This Row],[ProjType_]]))</f>
         <v>C A R E</v>
       </c>
-      <c r="I3" s="135" t="s">
+      <c r="I3" t="s">
         <v>259</v>
       </c>
       <c r="J3" t="str">
@@ -13673,7 +16706,7 @@
         tabSuperdettagli[[#This Row],[ProjType_]]) )</f>
         <v>C A R E</v>
       </c>
-      <c r="I4" s="135" t="s">
+      <c r="I4" t="s">
         <v>259</v>
       </c>
       <c r="J4">
@@ -13753,7 +16786,7 @@
         <f>IF(OR(tabSuperdettagli[[#This Row],[ProjType_]]="C",tabSuperdettagli[[#This Row],[ProjType_]]="A",tabSuperdettagli[[#This Row],[ProjType_]]="R",tabSuperdettagli[[#This Row],[ProjType_]]="E"),"C A R E",IF(tabSuperdettagli[[#This Row],[ProjType_]]="U","U ("&amp;tabSuperdettagli[[#This Row],[U ProjType_]]&amp;")",tabSuperdettagli[[#This Row],[ProjType_]]))</f>
         <v>5</v>
       </c>
-      <c r="I5" s="135" t="s">
+      <c r="I5" t="s">
         <v>259</v>
       </c>
       <c r="J5" t="str">
@@ -14012,7 +17045,7 @@
         <f>IF(OR(tabSuperdettagli[[#This Row],[ProjType_]]="C",tabSuperdettagli[[#This Row],[ProjType_]]="A",tabSuperdettagli[[#This Row],[ProjType_]]="R",tabSuperdettagli[[#This Row],[ProjType_]]="E"),"C A R E",IF(tabSuperdettagli[[#This Row],[ProjType_]]="U","U ("&amp;tabSuperdettagli[[#This Row],[U ProjType_]]&amp;")",tabSuperdettagli[[#This Row],[ProjType_]]))</f>
         <v>5</v>
       </c>
-      <c r="I6" s="135" t="s">
+      <c r="I6" t="s">
         <v>259</v>
       </c>
       <c r="J6" t="str">
@@ -14271,7 +17304,7 @@
         <f>IF(OR(tabSuperdettagli[[#This Row],[ProjType_]]="C",tabSuperdettagli[[#This Row],[ProjType_]]="A",tabSuperdettagli[[#This Row],[ProjType_]]="R",tabSuperdettagli[[#This Row],[ProjType_]]="E"),"C A R E",IF(tabSuperdettagli[[#This Row],[ProjType_]]="U","U ("&amp;tabSuperdettagli[[#This Row],[U ProjType_]]&amp;")",tabSuperdettagli[[#This Row],[ProjType_]]))</f>
         <v>5</v>
       </c>
-      <c r="I7" s="135" t="s">
+      <c r="I7" t="s">
         <v>259</v>
       </c>
       <c r="J7" t="str">
@@ -14530,7 +17563,7 @@
         <f>IF(OR(tabSuperdettagli[[#This Row],[ProjType_]]="C",tabSuperdettagli[[#This Row],[ProjType_]]="A",tabSuperdettagli[[#This Row],[ProjType_]]="R",tabSuperdettagli[[#This Row],[ProjType_]]="E"),"C A R E",IF(tabSuperdettagli[[#This Row],[ProjType_]]="U","U ("&amp;tabSuperdettagli[[#This Row],[U ProjType_]]&amp;")",tabSuperdettagli[[#This Row],[ProjType_]]))</f>
         <v>5</v>
       </c>
-      <c r="I8" s="135" t="s">
+      <c r="I8" t="s">
         <v>259</v>
       </c>
       <c r="J8" t="str">
@@ -14789,7 +17822,7 @@
         <f>IF(OR(tabSuperdettagli[[#This Row],[ProjType_]]="C",tabSuperdettagli[[#This Row],[ProjType_]]="A",tabSuperdettagli[[#This Row],[ProjType_]]="R",tabSuperdettagli[[#This Row],[ProjType_]]="E"),"C A R E",IF(tabSuperdettagli[[#This Row],[ProjType_]]="U","U ("&amp;tabSuperdettagli[[#This Row],[U ProjType_]]&amp;")",tabSuperdettagli[[#This Row],[ProjType_]]))</f>
         <v>5</v>
       </c>
-      <c r="I9" s="135" t="s">
+      <c r="I9" t="s">
         <v>259</v>
       </c>
       <c r="J9" t="str">
@@ -15035,6 +18068,162 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5882B473-5D75-4EC5-97EA-2825D8D298DB}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="144" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" s="145" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" s="145" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" s="145" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="145" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="145" t="s">
+        <v>309</v>
+      </c>
+      <c r="G1" s="145" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="145" t="s">
+        <v>311</v>
+      </c>
+      <c r="I1" s="145" t="s">
+        <v>312</v>
+      </c>
+      <c r="J1" s="145" t="s">
+        <v>313</v>
+      </c>
+      <c r="K1" s="145" t="s">
+        <v>314</v>
+      </c>
+      <c r="L1" s="145" t="s">
+        <v>315</v>
+      </c>
+      <c r="M1" s="145" t="s">
+        <v>316</v>
+      </c>
+      <c r="N1" s="146" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="147" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="148" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="148" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="148" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="148" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2" s="148" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>321</v>
+      </c>
+      <c r="H2" s="148" t="s">
+        <v>322</v>
+      </c>
+      <c r="I2" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="149">
+        <v>42369</v>
+      </c>
+      <c r="K2" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="148"/>
+      <c r="M2" s="149">
+        <v>42145</v>
+      </c>
+      <c r="N2" s="150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="151" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="152" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="152" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="152" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="152" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="152" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" s="152" t="s">
+        <v>321</v>
+      </c>
+      <c r="H3" s="152" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="153">
+        <v>42369</v>
+      </c>
+      <c r="K3" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="152"/>
+      <c r="M3" s="153">
+        <v>42145</v>
+      </c>
+      <c r="N3" s="154" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95598FF1-0840-4AD0-9948-EC3F44C2C440}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
@@ -15060,7 +18249,7 @@
       <c r="A4" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="134">
+      <c r="B4" s="143">
         <v>2026</v>
       </c>
     </row>
@@ -15068,7 +18257,7 @@
       <c r="A5" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="134">
+      <c r="B5" s="143">
         <v>2023</v>
       </c>
     </row>
@@ -15076,7 +18265,7 @@
       <c r="A6" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="134">
+      <c r="B6" s="143">
         <v>2000</v>
       </c>
     </row>
@@ -15084,7 +18273,7 @@
       <c r="A7" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="B7" s="134">
+      <c r="B7" s="143">
         <v>2000</v>
       </c>
     </row>
@@ -15093,7 +18282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -15333,7 +18522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -15656,7 +18845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -16080,2915 +19269,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A3:B363"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>98</v>
-      </c>
-      <c r="B62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>98</v>
-      </c>
-      <c r="B63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>98</v>
-      </c>
-      <c r="B64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>98</v>
-      </c>
-      <c r="B65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>98</v>
-      </c>
-      <c r="B66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>98</v>
-      </c>
-      <c r="B71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>98</v>
-      </c>
-      <c r="B76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>98</v>
-      </c>
-      <c r="B79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>98</v>
-      </c>
-      <c r="B81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>98</v>
-      </c>
-      <c r="B82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>98</v>
-      </c>
-      <c r="B83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>98</v>
-      </c>
-      <c r="B84" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>98</v>
-      </c>
-      <c r="B85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>98</v>
-      </c>
-      <c r="B86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>98</v>
-      </c>
-      <c r="B88" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>98</v>
-      </c>
-      <c r="B90" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>98</v>
-      </c>
-      <c r="B91" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>98</v>
-      </c>
-      <c r="B102" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>98</v>
-      </c>
-      <c r="B103" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>98</v>
-      </c>
-      <c r="B104" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>98</v>
-      </c>
-      <c r="B106" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>98</v>
-      </c>
-      <c r="B107" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>98</v>
-      </c>
-      <c r="B108" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>98</v>
-      </c>
-      <c r="B109" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>98</v>
-      </c>
-      <c r="B110" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>98</v>
-      </c>
-      <c r="B111" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>98</v>
-      </c>
-      <c r="B112" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>98</v>
-      </c>
-      <c r="B113" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>98</v>
-      </c>
-      <c r="B114" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>98</v>
-      </c>
-      <c r="B115" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>98</v>
-      </c>
-      <c r="B116" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>98</v>
-      </c>
-      <c r="B117" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>98</v>
-      </c>
-      <c r="B118" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>98</v>
-      </c>
-      <c r="B119" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>98</v>
-      </c>
-      <c r="B120" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>98</v>
-      </c>
-      <c r="B121" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>98</v>
-      </c>
-      <c r="B122" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>98</v>
-      </c>
-      <c r="B123" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>98</v>
-      </c>
-      <c r="B124" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>98</v>
-      </c>
-      <c r="B125" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>98</v>
-      </c>
-      <c r="B126" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>98</v>
-      </c>
-      <c r="B127" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>98</v>
-      </c>
-      <c r="B128" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>98</v>
-      </c>
-      <c r="B129" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>98</v>
-      </c>
-      <c r="B130" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>98</v>
-      </c>
-      <c r="B131" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>98</v>
-      </c>
-      <c r="B132" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>98</v>
-      </c>
-      <c r="B133" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>98</v>
-      </c>
-      <c r="B134" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>98</v>
-      </c>
-      <c r="B135" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>98</v>
-      </c>
-      <c r="B136" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>98</v>
-      </c>
-      <c r="B137" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>98</v>
-      </c>
-      <c r="B138" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>98</v>
-      </c>
-      <c r="B139" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>98</v>
-      </c>
-      <c r="B140" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>98</v>
-      </c>
-      <c r="B141" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>98</v>
-      </c>
-      <c r="B142" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>98</v>
-      </c>
-      <c r="B143" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>98</v>
-      </c>
-      <c r="B144" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>98</v>
-      </c>
-      <c r="B145" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>98</v>
-      </c>
-      <c r="B146" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>98</v>
-      </c>
-      <c r="B147" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>98</v>
-      </c>
-      <c r="B148" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>98</v>
-      </c>
-      <c r="B149" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>98</v>
-      </c>
-      <c r="B150" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>98</v>
-      </c>
-      <c r="B151" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>98</v>
-      </c>
-      <c r="B152" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>98</v>
-      </c>
-      <c r="B153" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>98</v>
-      </c>
-      <c r="B154" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>98</v>
-      </c>
-      <c r="B155" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>98</v>
-      </c>
-      <c r="B156" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>98</v>
-      </c>
-      <c r="B157" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>98</v>
-      </c>
-      <c r="B158" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>98</v>
-      </c>
-      <c r="B159" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>98</v>
-      </c>
-      <c r="B160" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>98</v>
-      </c>
-      <c r="B161" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>98</v>
-      </c>
-      <c r="B162" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>98</v>
-      </c>
-      <c r="B163" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>98</v>
-      </c>
-      <c r="B164" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>98</v>
-      </c>
-      <c r="B165" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>98</v>
-      </c>
-      <c r="B166" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>98</v>
-      </c>
-      <c r="B167" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>98</v>
-      </c>
-      <c r="B168" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>98</v>
-      </c>
-      <c r="B169" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>98</v>
-      </c>
-      <c r="B170" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>98</v>
-      </c>
-      <c r="B171" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>98</v>
-      </c>
-      <c r="B172" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>98</v>
-      </c>
-      <c r="B173" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>98</v>
-      </c>
-      <c r="B174" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>98</v>
-      </c>
-      <c r="B175" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>98</v>
-      </c>
-      <c r="B176" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>98</v>
-      </c>
-      <c r="B177" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>98</v>
-      </c>
-      <c r="B178" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>98</v>
-      </c>
-      <c r="B179" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>98</v>
-      </c>
-      <c r="B180" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>98</v>
-      </c>
-      <c r="B181" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>98</v>
-      </c>
-      <c r="B182" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>98</v>
-      </c>
-      <c r="B183" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>98</v>
-      </c>
-      <c r="B184" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>98</v>
-      </c>
-      <c r="B185" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>98</v>
-      </c>
-      <c r="B186" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>98</v>
-      </c>
-      <c r="B187" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>98</v>
-      </c>
-      <c r="B188" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>98</v>
-      </c>
-      <c r="B189" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>98</v>
-      </c>
-      <c r="B190" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>98</v>
-      </c>
-      <c r="B191" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>98</v>
-      </c>
-      <c r="B192" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>98</v>
-      </c>
-      <c r="B193" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>98</v>
-      </c>
-      <c r="B194" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>98</v>
-      </c>
-      <c r="B195" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>98</v>
-      </c>
-      <c r="B196" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>98</v>
-      </c>
-      <c r="B197" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>98</v>
-      </c>
-      <c r="B198" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>98</v>
-      </c>
-      <c r="B199" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>98</v>
-      </c>
-      <c r="B200" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>98</v>
-      </c>
-      <c r="B201" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>98</v>
-      </c>
-      <c r="B202" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>98</v>
-      </c>
-      <c r="B203" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>98</v>
-      </c>
-      <c r="B204" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>98</v>
-      </c>
-      <c r="B205" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>98</v>
-      </c>
-      <c r="B206" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>98</v>
-      </c>
-      <c r="B207" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>98</v>
-      </c>
-      <c r="B208" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>98</v>
-      </c>
-      <c r="B209" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>98</v>
-      </c>
-      <c r="B210" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>98</v>
-      </c>
-      <c r="B211" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>98</v>
-      </c>
-      <c r="B212" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>98</v>
-      </c>
-      <c r="B213" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>98</v>
-      </c>
-      <c r="B214" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>98</v>
-      </c>
-      <c r="B215" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>98</v>
-      </c>
-      <c r="B216" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>98</v>
-      </c>
-      <c r="B217" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>98</v>
-      </c>
-      <c r="B218" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>98</v>
-      </c>
-      <c r="B219" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>98</v>
-      </c>
-      <c r="B220" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>98</v>
-      </c>
-      <c r="B221" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>98</v>
-      </c>
-      <c r="B222" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>98</v>
-      </c>
-      <c r="B223" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>98</v>
-      </c>
-      <c r="B224" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>98</v>
-      </c>
-      <c r="B225" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>98</v>
-      </c>
-      <c r="B226" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>98</v>
-      </c>
-      <c r="B227" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>98</v>
-      </c>
-      <c r="B228" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>98</v>
-      </c>
-      <c r="B229" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>98</v>
-      </c>
-      <c r="B230" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>98</v>
-      </c>
-      <c r="B231" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>98</v>
-      </c>
-      <c r="B232" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>98</v>
-      </c>
-      <c r="B233" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>98</v>
-      </c>
-      <c r="B234" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>98</v>
-      </c>
-      <c r="B235" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>98</v>
-      </c>
-      <c r="B236" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>98</v>
-      </c>
-      <c r="B237" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>98</v>
-      </c>
-      <c r="B238" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>98</v>
-      </c>
-      <c r="B239" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>98</v>
-      </c>
-      <c r="B240" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>98</v>
-      </c>
-      <c r="B241" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>98</v>
-      </c>
-      <c r="B242" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>98</v>
-      </c>
-      <c r="B243" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>98</v>
-      </c>
-      <c r="B244" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>98</v>
-      </c>
-      <c r="B245" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>98</v>
-      </c>
-      <c r="B246" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>98</v>
-      </c>
-      <c r="B247" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>98</v>
-      </c>
-      <c r="B248" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>98</v>
-      </c>
-      <c r="B249" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>98</v>
-      </c>
-      <c r="B250" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>98</v>
-      </c>
-      <c r="B251" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>98</v>
-      </c>
-      <c r="B252" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>98</v>
-      </c>
-      <c r="B253" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>98</v>
-      </c>
-      <c r="B254" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>98</v>
-      </c>
-      <c r="B255" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>98</v>
-      </c>
-      <c r="B256" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>98</v>
-      </c>
-      <c r="B257" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>98</v>
-      </c>
-      <c r="B258" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>98</v>
-      </c>
-      <c r="B259" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>98</v>
-      </c>
-      <c r="B260" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>98</v>
-      </c>
-      <c r="B261" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>98</v>
-      </c>
-      <c r="B262" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>98</v>
-      </c>
-      <c r="B263" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>98</v>
-      </c>
-      <c r="B264" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>98</v>
-      </c>
-      <c r="B265" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>98</v>
-      </c>
-      <c r="B266" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>98</v>
-      </c>
-      <c r="B267" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>98</v>
-      </c>
-      <c r="B268" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>98</v>
-      </c>
-      <c r="B269" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>98</v>
-      </c>
-      <c r="B270" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>98</v>
-      </c>
-      <c r="B271" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>98</v>
-      </c>
-      <c r="B272" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>98</v>
-      </c>
-      <c r="B273" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>98</v>
-      </c>
-      <c r="B274" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>98</v>
-      </c>
-      <c r="B275" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>98</v>
-      </c>
-      <c r="B276" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>98</v>
-      </c>
-      <c r="B277" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>98</v>
-      </c>
-      <c r="B278" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>98</v>
-      </c>
-      <c r="B279" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>98</v>
-      </c>
-      <c r="B280" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>98</v>
-      </c>
-      <c r="B281" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>98</v>
-      </c>
-      <c r="B282" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>98</v>
-      </c>
-      <c r="B283" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>98</v>
-      </c>
-      <c r="B284" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>98</v>
-      </c>
-      <c r="B285" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>98</v>
-      </c>
-      <c r="B286" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>98</v>
-      </c>
-      <c r="B287" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>98</v>
-      </c>
-      <c r="B288" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>98</v>
-      </c>
-      <c r="B289" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>98</v>
-      </c>
-      <c r="B290" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>98</v>
-      </c>
-      <c r="B291" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>98</v>
-      </c>
-      <c r="B292" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>98</v>
-      </c>
-      <c r="B293" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>98</v>
-      </c>
-      <c r="B294" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>98</v>
-      </c>
-      <c r="B295" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>98</v>
-      </c>
-      <c r="B296" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>98</v>
-      </c>
-      <c r="B297" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>98</v>
-      </c>
-      <c r="B298" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>98</v>
-      </c>
-      <c r="B299" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>98</v>
-      </c>
-      <c r="B300" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>98</v>
-      </c>
-      <c r="B301" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>98</v>
-      </c>
-      <c r="B302" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>98</v>
-      </c>
-      <c r="B303" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>98</v>
-      </c>
-      <c r="B304" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>98</v>
-      </c>
-      <c r="B305" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>98</v>
-      </c>
-      <c r="B306" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>98</v>
-      </c>
-      <c r="B307" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>98</v>
-      </c>
-      <c r="B308" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>98</v>
-      </c>
-      <c r="B309" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>98</v>
-      </c>
-      <c r="B310" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>98</v>
-      </c>
-      <c r="B311" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>98</v>
-      </c>
-      <c r="B312" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>98</v>
-      </c>
-      <c r="B313" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>98</v>
-      </c>
-      <c r="B314" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>98</v>
-      </c>
-      <c r="B315" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>98</v>
-      </c>
-      <c r="B316" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>98</v>
-      </c>
-      <c r="B317" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>98</v>
-      </c>
-      <c r="B318" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>98</v>
-      </c>
-      <c r="B319" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>98</v>
-      </c>
-      <c r="B320" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>98</v>
-      </c>
-      <c r="B321" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>98</v>
-      </c>
-      <c r="B322" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>98</v>
-      </c>
-      <c r="B323" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>98</v>
-      </c>
-      <c r="B324" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>98</v>
-      </c>
-      <c r="B325" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>98</v>
-      </c>
-      <c r="B326" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>98</v>
-      </c>
-      <c r="B327" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>98</v>
-      </c>
-      <c r="B328" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>98</v>
-      </c>
-      <c r="B329" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>98</v>
-      </c>
-      <c r="B330" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>98</v>
-      </c>
-      <c r="B331" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>98</v>
-      </c>
-      <c r="B332" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>98</v>
-      </c>
-      <c r="B333" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>98</v>
-      </c>
-      <c r="B334" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>98</v>
-      </c>
-      <c r="B335" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>98</v>
-      </c>
-      <c r="B336" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>98</v>
-      </c>
-      <c r="B337" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>98</v>
-      </c>
-      <c r="B338" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>98</v>
-      </c>
-      <c r="B339" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>98</v>
-      </c>
-      <c r="B340" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>98</v>
-      </c>
-      <c r="B341" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>98</v>
-      </c>
-      <c r="B342" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>98</v>
-      </c>
-      <c r="B343" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>98</v>
-      </c>
-      <c r="B344" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>98</v>
-      </c>
-      <c r="B345" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>98</v>
-      </c>
-      <c r="B346" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>98</v>
-      </c>
-      <c r="B347" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>98</v>
-      </c>
-      <c r="B348" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>98</v>
-      </c>
-      <c r="B349" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>98</v>
-      </c>
-      <c r="B350" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>98</v>
-      </c>
-      <c r="B351" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>98</v>
-      </c>
-      <c r="B352" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>98</v>
-      </c>
-      <c r="B353" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>98</v>
-      </c>
-      <c r="B354" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>98</v>
-      </c>
-      <c r="B355" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>98</v>
-      </c>
-      <c r="B356" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>98</v>
-      </c>
-      <c r="B357" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>98</v>
-      </c>
-      <c r="B358" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>98</v>
-      </c>
-      <c r="B359" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>98</v>
-      </c>
-      <c r="B360" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>98</v>
-      </c>
-      <c r="B361" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>98</v>
-      </c>
-      <c r="B362" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>98</v>
-      </c>
-      <c r="B363" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Solution/PptGeneratorGUI/DataSourceFolder/DataSource.xlsx
+++ b/Solution/PptGeneratorGUI/DataSourceFolder/DataSource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Lefo\Dev\3 GDPptGenerator\Solution\PptGeneratorGUI\DataSourceFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4067ECE1-D3C1-4C20-95A0-570E7E33E4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EF5B40-BE92-42AF-A6CF-C6DA07123D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="924" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18071,7 +18071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5882B473-5D75-4EC5-97EA-2825D8D298DB}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
